--- a/accel_sensor_data/accel_time_info.xlsx
+++ b/accel_sensor_data/accel_time_info.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejohnshopkins-my.sharepoint.com/personal/sbhatt15_jh_edu/Documents/Shubhayu_Projects/Johns Hopkins University/ICU Motion Study/nims/accel_sensor_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_B28D3705B7318D25F7DEE844F95337199BC6FCC2" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40296" uniqueCount="938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="938">
   <si>
     <t>first_start</t>
   </si>
@@ -2834,8 +2841,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -2849,7 +2856,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="139">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2857,5500 +2864,5534 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="77" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="79" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="90" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="92" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="99" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="102" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="103" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="104" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="105" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="106" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="109" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="110" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="111" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="112" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="113" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="114" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="115" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="116" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="117" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="120" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="121" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="122" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="123" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="124" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="125" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="126" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="127" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="130" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="131" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="132" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="133" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="134" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="135" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="136" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="137" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="138" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X70"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X9" sqref="X9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="true"/>
-    <col min="2" max="2" width="11.85546875" customWidth="true"/>
-    <col min="3" max="3" width="13.7109375" customWidth="true"/>
-    <col min="4" max="4" width="11.85546875" customWidth="true"/>
-    <col min="5" max="5" width="11.85546875" customWidth="true"/>
-    <col min="6" max="6" width="11.7109375" customWidth="true"/>
-    <col min="7" max="7" width="11.85546875" customWidth="true"/>
-    <col min="8" max="8" width="11.85546875" customWidth="true"/>
-    <col min="9" max="9" width="11.7109375" customWidth="true"/>
-    <col min="10" max="10" width="11.85546875" customWidth="true"/>
-    <col min="11" max="11" width="11.85546875" customWidth="true"/>
-    <col min="12" max="12" width="11.7109375" customWidth="true"/>
-    <col min="13" max="13" width="11.85546875" customWidth="true"/>
-    <col min="14" max="14" width="11.85546875" customWidth="true"/>
-    <col min="15" max="15" width="11.7109375" customWidth="true"/>
-    <col min="16" max="16" width="11.85546875" customWidth="true"/>
-    <col min="17" max="17" width="11.85546875" customWidth="true"/>
-    <col min="18" max="18" width="11.7109375" customWidth="true"/>
-    <col min="19" max="19" width="11.85546875" customWidth="true"/>
-    <col min="20" max="20" width="11.85546875" customWidth="true"/>
-    <col min="21" max="21" width="11.7109375" customWidth="true"/>
-    <col min="22" max="22" width="11.85546875" customWidth="true"/>
-    <col min="23" max="23" width="11.85546875" customWidth="true"/>
-    <col min="24" max="24" width="11.7109375" customWidth="true"/>
+    <col min="1" max="2" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="5" width="11.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="8" width="11.83203125" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="1"/>
+    <col min="10" max="11" width="11.83203125" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" customWidth="1"/>
+    <col min="13" max="14" width="11.83203125" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" customWidth="1"/>
+    <col min="16" max="17" width="11.83203125" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" customWidth="1"/>
+    <col min="19" max="20" width="11.83203125" customWidth="1"/>
+    <col min="21" max="21" width="11.6640625" customWidth="1"/>
+    <col min="22" max="23" width="11.83203125" customWidth="1"/>
+    <col min="24" max="24" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="137" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="137" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="137" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="137" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="137" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="137" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="137" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="137" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="137" t="s">
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="137" t="s">
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="137" t="s">
+      <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="137" t="s">
+      <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="137" t="s">
+      <c r="M1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="137" t="s">
+      <c r="N1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="137" t="s">
+      <c r="O1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="137" t="s">
+      <c r="P1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="137" t="s">
+      <c r="Q1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="137" t="s">
+      <c r="R1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="137" t="s">
+      <c r="S1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="137" t="s">
+      <c r="T1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="137" t="s">
+      <c r="U1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V1" s="137" t="s">
+      <c r="V1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W1" s="137" t="s">
+      <c r="W1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="X1" s="137" t="s">
+      <c r="X1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="137" t="s">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2">
         <v>10.041083333333335</v>
       </c>
-      <c r="D2" s="137" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="137" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2">
         <v>10.041083333333335</v>
       </c>
-      <c r="G2" s="137" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="137" t="s">
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I2">
         <v>10.041083333333335</v>
       </c>
-      <c r="J2" s="137" t="s">
+      <c r="J2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="137" t="s">
+      <c r="K2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L2">
         <v>10.041083333333335</v>
       </c>
-      <c r="M2" s="137" t="s">
+      <c r="M2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="137" t="s">
+      <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="O2">
         <v>10.041083333333335</v>
       </c>
-      <c r="P2" s="137" t="s">
+      <c r="P2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="137" t="s">
+      <c r="Q2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="R2">
         <v>10.041083333333335</v>
       </c>
-      <c r="S2" s="137" t="s">
+      <c r="S2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="137" t="s">
+      <c r="T2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="U2">
         <v>10.041083333333335</v>
       </c>
-      <c r="V2" s="137" t="s">
+      <c r="V2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="137" t="s">
+      <c r="W2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="X2">
         <v>10.041083333333335</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="137" t="s">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C3">
         <v>10.307777777777778</v>
       </c>
-      <c r="D3" s="137" t="s">
+      <c r="D3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="137" t="s">
+      <c r="E3" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F3">
         <v>10.307777777777778</v>
       </c>
-      <c r="G3" s="137" t="s">
+      <c r="G3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="137" t="s">
+      <c r="H3" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I3">
         <v>10.307777777777778</v>
       </c>
-      <c r="J3" s="137" t="s">
+      <c r="J3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="137" t="s">
+      <c r="K3" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L3">
         <v>10.307777777777778</v>
       </c>
-      <c r="M3" s="137" t="s">
+      <c r="M3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="137" t="s">
+      <c r="N3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="O3">
         <v>10.307777777777778</v>
       </c>
-      <c r="P3" s="137" t="s">
+      <c r="P3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q3" s="137" t="s">
+      <c r="Q3" s="1" t="s">
         <v>44</v>
       </c>
       <c r="R3">
         <v>10.307777777777778</v>
       </c>
-      <c r="S3" s="137" t="s">
+      <c r="S3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="T3" s="137" t="s">
+      <c r="T3" s="1" t="s">
         <v>39</v>
       </c>
       <c r="U3">
         <v>10.307777777777778</v>
       </c>
-      <c r="V3" s="137" t="s">
+      <c r="V3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="W3" s="137" t="s">
+      <c r="W3" s="1" t="s">
         <v>47</v>
       </c>
       <c r="X3">
         <v>10.307777777777778</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="137" t="s">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C4">
         <v>10.07</v>
       </c>
-      <c r="D4" s="137" t="s">
+      <c r="D4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="137" t="s">
+      <c r="E4" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F4">
         <v>10.07</v>
       </c>
-      <c r="G4" s="137" t="s">
+      <c r="G4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="137" t="s">
+      <c r="H4" s="1" t="s">
         <v>52</v>
       </c>
       <c r="I4">
         <v>10.07</v>
       </c>
-      <c r="J4" s="137" t="s">
+      <c r="J4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K4" s="137" t="s">
+      <c r="K4" s="1" t="s">
         <v>54</v>
       </c>
       <c r="L4">
         <v>10.07</v>
       </c>
-      <c r="M4" s="137" t="s">
+      <c r="M4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="N4" s="137" t="s">
+      <c r="N4" s="1" t="s">
         <v>54</v>
       </c>
       <c r="O4">
         <v>10.07</v>
       </c>
-      <c r="P4" s="137" t="s">
+      <c r="P4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q4" s="137" t="s">
+      <c r="Q4" s="1" t="s">
         <v>56</v>
       </c>
       <c r="R4">
         <v>10.07</v>
       </c>
-      <c r="S4" s="137" t="s">
+      <c r="S4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="T4" s="137" t="s">
+      <c r="T4" s="1" t="s">
         <v>58</v>
       </c>
       <c r="U4">
         <v>10.07</v>
       </c>
-      <c r="V4" s="137" t="s">
+      <c r="V4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="W4" s="137" t="s">
+      <c r="W4" s="1" t="s">
         <v>58</v>
       </c>
       <c r="X4">
         <v>10.07</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="137" t="s">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="137" t="s">
+      <c r="B5" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C5">
         <v>25.333611111111111</v>
       </c>
-      <c r="D5" s="137" t="s">
+      <c r="D5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="137" t="s">
+      <c r="E5" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F5">
         <v>25.333611111111111</v>
       </c>
-      <c r="G5" s="137" t="s">
+      <c r="G5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="137" t="s">
+      <c r="H5" s="1" t="s">
         <v>63</v>
       </c>
       <c r="I5">
         <v>25.333611111111111</v>
       </c>
-      <c r="J5" s="137" t="s">
+      <c r="J5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K5" s="137" t="s">
+      <c r="K5" s="1" t="s">
         <v>65</v>
       </c>
       <c r="L5">
         <v>25.333611111111111</v>
       </c>
-      <c r="M5" s="137" t="s">
+      <c r="M5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="137" t="s">
+      <c r="N5" s="1" t="s">
         <v>65</v>
       </c>
       <c r="O5">
         <v>25.333611111111111</v>
       </c>
-      <c r="P5" s="137" t="s">
+      <c r="P5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="Q5" s="137" t="s">
+      <c r="Q5" s="1" t="s">
         <v>60</v>
       </c>
       <c r="R5">
         <v>25.333611111111111</v>
       </c>
-      <c r="S5" s="137" t="s">
+      <c r="S5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="T5" s="137" t="s">
+      <c r="T5" s="1" t="s">
         <v>65</v>
       </c>
       <c r="U5">
         <v>25.333611111111111</v>
       </c>
-      <c r="V5" s="137" t="s">
+      <c r="V5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="W5" s="137" t="s">
+      <c r="W5" s="1" t="s">
         <v>65</v>
       </c>
       <c r="X5">
         <v>25.333611111111111</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="137" t="s">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="137" t="s">
+      <c r="B6" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C6">
         <v>22.073055555555559</v>
       </c>
-      <c r="D6" s="137" t="s">
+      <c r="D6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="137" t="s">
+      <c r="E6" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F6">
         <v>22.073055555555559</v>
       </c>
-      <c r="G6" s="137" t="s">
+      <c r="G6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="137" t="s">
+      <c r="H6" s="1" t="s">
         <v>72</v>
       </c>
       <c r="I6">
         <v>22.073055555555559</v>
       </c>
-      <c r="J6" s="137" t="s">
+      <c r="J6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="137" t="s">
+      <c r="K6" s="1" t="s">
         <v>74</v>
       </c>
       <c r="L6">
         <v>22.073055555555559</v>
       </c>
-      <c r="M6" s="137" t="s">
+      <c r="M6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="N6" s="137" t="s">
+      <c r="N6" s="1" t="s">
         <v>74</v>
       </c>
       <c r="O6">
         <v>22.073055555555559</v>
       </c>
-      <c r="P6" s="137" t="s">
+      <c r="P6" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="Q6" s="137" t="s">
+      <c r="Q6" s="1" t="s">
         <v>72</v>
       </c>
       <c r="R6">
         <v>22.073055555555559</v>
       </c>
-      <c r="S6" s="137" t="s">
+      <c r="S6" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="T6" s="137" t="s">
+      <c r="T6" s="1" t="s">
         <v>77</v>
       </c>
       <c r="U6">
         <v>22.073055555555559</v>
       </c>
-      <c r="V6" s="137" t="s">
+      <c r="V6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="W6" s="137" t="s">
+      <c r="W6" s="1" t="s">
         <v>74</v>
       </c>
       <c r="X6">
         <v>22.073055555555559</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="137" t="s">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C7">
         <v>3.4331111111111112</v>
       </c>
-      <c r="D7" s="137" t="s">
+      <c r="D7" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="137" t="s">
+      <c r="E7" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F7">
         <v>3.4331111111111112</v>
       </c>
-      <c r="G7" s="137" t="s">
+      <c r="G7" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H7" s="137" t="s">
+      <c r="H7" s="1" t="s">
         <v>79</v>
       </c>
       <c r="I7">
         <v>3.4331111111111112</v>
       </c>
-      <c r="J7" s="137" t="s">
+      <c r="J7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K7" s="137" t="s">
+      <c r="K7" s="1" t="s">
         <v>83</v>
       </c>
       <c r="L7">
         <v>3.4331111111111112</v>
       </c>
-      <c r="M7" s="137" t="s">
+      <c r="M7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="N7" s="137" t="s">
+      <c r="N7" s="1" t="s">
         <v>84</v>
       </c>
       <c r="O7">
         <v>3.4331111111111112</v>
       </c>
-      <c r="P7" s="137" t="s">
+      <c r="P7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Q7" s="137" t="s">
+      <c r="Q7" s="1" t="s">
         <v>79</v>
       </c>
       <c r="R7">
         <v>3.4331111111111112</v>
       </c>
-      <c r="S7" s="137" t="s">
+      <c r="S7" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="T7" s="137" t="s">
+      <c r="T7" s="1" t="s">
         <v>79</v>
       </c>
       <c r="U7">
         <v>3.4331111111111112</v>
       </c>
-      <c r="V7" s="137" t="s">
+      <c r="V7" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="W7" s="137" t="s">
+      <c r="W7" s="1" t="s">
         <v>79</v>
       </c>
       <c r="X7">
         <v>3.4331111111111112</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="137" t="s">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C8">
         <v>36.279499999999999</v>
       </c>
-      <c r="D8" s="137" t="s">
+      <c r="D8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="137" t="s">
+      <c r="E8" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F8">
         <v>36.279499999999999</v>
       </c>
-      <c r="G8" s="137" t="s">
+      <c r="G8" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H8" s="137" t="s">
+      <c r="H8" s="1" t="s">
         <v>90</v>
       </c>
       <c r="I8">
         <v>36.279499999999999</v>
       </c>
-      <c r="J8" s="137" t="s">
+      <c r="J8" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K8" s="137" t="s">
+      <c r="K8" s="1" t="s">
         <v>92</v>
       </c>
       <c r="L8">
         <v>36.279499999999999</v>
       </c>
-      <c r="M8" s="137" t="s">
+      <c r="M8" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="N8" s="137" t="s">
+      <c r="N8" s="1" t="s">
         <v>92</v>
       </c>
       <c r="O8">
         <v>36.279499999999999</v>
       </c>
-      <c r="P8" s="137" t="s">
+      <c r="P8" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Q8" s="137" t="s">
+      <c r="Q8" s="1" t="s">
         <v>94</v>
       </c>
       <c r="R8">
         <v>36.279499999999999</v>
       </c>
-      <c r="S8" s="137" t="s">
+      <c r="S8" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="T8" s="137" t="s">
+      <c r="T8" s="1" t="s">
         <v>96</v>
       </c>
       <c r="U8">
         <v>36.279499999999999</v>
       </c>
-      <c r="V8" s="137" t="s">
+      <c r="V8" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="W8" s="137" t="s">
+      <c r="W8" s="1" t="s">
         <v>98</v>
       </c>
       <c r="X8">
         <v>36.279499999999999</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="137" t="s">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C9">
         <v>23.376638888888884</v>
       </c>
-      <c r="D9" s="137" t="s">
+      <c r="D9" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="137" t="s">
+      <c r="E9" s="1" t="s">
         <v>100</v>
       </c>
       <c r="F9">
         <v>23.376638888888884</v>
       </c>
-      <c r="G9" s="137" t="s">
+      <c r="G9" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H9" s="137" t="s">
+      <c r="H9" s="1" t="s">
         <v>103</v>
       </c>
       <c r="I9">
         <v>23.376638888888884</v>
       </c>
-      <c r="J9" s="137" t="s">
+      <c r="J9" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K9" s="137" t="s">
+      <c r="K9" s="1" t="s">
         <v>105</v>
       </c>
       <c r="L9">
         <v>23.376638888888884</v>
       </c>
-      <c r="M9" s="137" t="s">
+      <c r="M9" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="N9" s="137" t="s">
+      <c r="N9" s="1" t="s">
         <v>105</v>
       </c>
       <c r="O9">
         <v>23.376638888888884</v>
       </c>
-      <c r="P9" s="137" t="s">
+      <c r="P9" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="Q9" s="137" t="s">
+      <c r="Q9" s="1" t="s">
         <v>103</v>
       </c>
       <c r="R9">
         <v>23.376638888888884</v>
       </c>
-      <c r="S9" s="137" t="s">
+      <c r="S9" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="T9" s="137" t="s">
+      <c r="T9" s="1" t="s">
         <v>108</v>
       </c>
       <c r="U9">
         <v>23.376638888888884</v>
       </c>
-      <c r="V9" s="137" t="s">
+      <c r="V9" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="W9" s="137" t="s">
+      <c r="W9" s="1" t="s">
         <v>108</v>
       </c>
       <c r="X9">
         <v>23.376638888888884</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="137" t="s">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="137" t="s">
+      <c r="B10" s="1" t="s">
         <v>111</v>
       </c>
       <c r="C10">
         <v>24.552888888888887</v>
       </c>
-      <c r="D10" s="137" t="s">
+      <c r="D10" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="137" t="s">
+      <c r="E10" s="1" t="s">
         <v>111</v>
       </c>
       <c r="F10">
         <v>24.552888888888887</v>
       </c>
-      <c r="G10" s="137" t="s">
+      <c r="G10" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H10" s="137" t="s">
+      <c r="H10" s="1" t="s">
         <v>114</v>
       </c>
       <c r="I10">
         <v>24.552888888888887</v>
       </c>
-      <c r="J10" s="137" t="s">
+      <c r="J10" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="K10" s="137" t="s">
+      <c r="K10" s="1" t="s">
         <v>116</v>
       </c>
       <c r="L10">
         <v>24.552888888888887</v>
       </c>
-      <c r="M10" s="137" t="s">
+      <c r="M10" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="N10" s="137" t="s">
+      <c r="N10" s="1" t="s">
         <v>116</v>
       </c>
       <c r="O10">
         <v>24.552888888888887</v>
       </c>
-      <c r="P10" s="137" t="s">
+      <c r="P10" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Q10" s="137" t="s">
+      <c r="Q10" s="1" t="s">
         <v>118</v>
       </c>
       <c r="R10">
         <v>24.552888888888887</v>
       </c>
-      <c r="S10" s="137" t="s">
+      <c r="S10" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="T10" s="137" t="s">
+      <c r="T10" s="1" t="s">
         <v>120</v>
       </c>
       <c r="U10">
         <v>24.552888888888887</v>
       </c>
-      <c r="V10" s="137" t="s">
+      <c r="V10" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="W10" s="137" t="s">
+      <c r="W10" s="1" t="s">
         <v>120</v>
       </c>
       <c r="X10">
         <v>24.552888888888887</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="137" t="s">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B11" s="137" t="s">
+      <c r="B11" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C11">
         <v>35.918416666666666</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E11" s="137" t="s">
+      <c r="E11" s="1" t="s">
         <v>123</v>
       </c>
       <c r="F11">
         <v>35.918416666666666</v>
       </c>
-      <c r="G11" s="137" t="s">
+      <c r="G11" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H11" s="137" t="s">
+      <c r="H11" s="1" t="s">
         <v>126</v>
       </c>
       <c r="I11">
         <v>35.918416666666666</v>
       </c>
-      <c r="J11" s="137" t="s">
+      <c r="J11" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="K11" s="137" t="s">
+      <c r="K11" s="1" t="s">
         <v>128</v>
       </c>
       <c r="L11">
         <v>35.918416666666666</v>
       </c>
-      <c r="M11" s="137" t="s">
+      <c r="M11" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="N11" s="137" t="s">
+      <c r="N11" s="1" t="s">
         <v>128</v>
       </c>
       <c r="O11">
         <v>35.918416666666666</v>
       </c>
-      <c r="P11" s="137" t="s">
+      <c r="P11" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="Q11" s="137" t="s">
+      <c r="Q11" s="1" t="s">
         <v>130</v>
       </c>
       <c r="R11">
         <v>35.918416666666666</v>
       </c>
-      <c r="S11" s="137" t="s">
+      <c r="S11" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="T11" s="137" t="s">
+      <c r="T11" s="1" t="s">
         <v>132</v>
       </c>
       <c r="U11">
         <v>35.918416666666666</v>
       </c>
-      <c r="V11" s="137" t="s">
+      <c r="V11" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="W11" s="137" t="s">
+      <c r="W11" s="1" t="s">
         <v>132</v>
       </c>
       <c r="X11">
         <v>35.918416666666666</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="137" t="s">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B12" s="137" t="s">
+      <c r="B12" s="1" t="s">
         <v>134</v>
       </c>
       <c r="C12">
         <v>10.130416666666667</v>
       </c>
-      <c r="D12" s="137" t="s">
+      <c r="D12" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E12" s="137" t="s">
+      <c r="E12" s="1" t="s">
         <v>136</v>
       </c>
       <c r="F12">
         <v>10.051333333333334</v>
       </c>
-      <c r="G12" s="137" t="s">
+      <c r="G12" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="H12" s="137" t="s">
+      <c r="H12" s="1" t="s">
         <v>138</v>
       </c>
       <c r="I12">
         <v>10.13038888888889</v>
       </c>
-      <c r="J12" s="137" t="s">
+      <c r="J12" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K12" s="137" t="s">
+      <c r="K12" s="1" t="s">
         <v>134</v>
       </c>
       <c r="L12">
         <v>10.130416666666667</v>
       </c>
-      <c r="M12" s="137" t="s">
+      <c r="M12" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="N12" s="137" t="s">
+      <c r="N12" s="1" t="s">
         <v>140</v>
       </c>
       <c r="O12">
         <v>10.130416666666667</v>
       </c>
-      <c r="P12" s="137" t="s">
+      <c r="P12" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="Q12" s="137" t="s">
+      <c r="Q12" s="1" t="s">
         <v>142</v>
       </c>
       <c r="R12">
         <v>10.13038888888889</v>
       </c>
-      <c r="S12" s="137" t="s">
+      <c r="S12" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="T12" s="137" t="s">
+      <c r="T12" s="1" t="s">
         <v>138</v>
       </c>
       <c r="U12">
         <v>10.13038888888889</v>
       </c>
-      <c r="V12" s="137" t="s">
+      <c r="V12" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="W12" s="137" t="s">
+      <c r="W12" s="1" t="s">
         <v>138</v>
       </c>
       <c r="X12">
         <v>10.13038888888889</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="137" t="s">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B13" s="137" t="s">
+      <c r="B13" s="1" t="s">
         <v>145</v>
       </c>
       <c r="C13">
         <v>25.043333333333333</v>
       </c>
-      <c r="D13" s="137" t="s">
+      <c r="D13" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E13" s="137" t="s">
+      <c r="E13" s="1" t="s">
         <v>147</v>
       </c>
       <c r="F13">
         <v>25.005833333333332</v>
       </c>
-      <c r="G13" s="137" t="s">
+      <c r="G13" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="H13" s="137" t="s">
+      <c r="H13" s="1" t="s">
         <v>149</v>
       </c>
       <c r="I13">
         <v>25.042722222222221</v>
       </c>
-      <c r="J13" s="137" t="s">
+      <c r="J13" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="K13" s="137" t="s">
+      <c r="K13" s="1" t="s">
         <v>151</v>
       </c>
       <c r="L13">
         <v>21.777333333333331</v>
       </c>
-      <c r="M13" s="137" t="s">
+      <c r="M13" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="N13" s="137" t="s">
+      <c r="N13" s="1" t="s">
         <v>145</v>
       </c>
       <c r="O13">
         <v>6.8279166666666669</v>
       </c>
-      <c r="P13" s="137" t="s">
+      <c r="P13" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="Q13" s="137" t="s">
+      <c r="Q13" s="1" t="s">
         <v>153</v>
       </c>
       <c r="R13">
         <v>24.919722222222223</v>
       </c>
-      <c r="S13" s="137" t="s">
+      <c r="S13" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="T13" s="137" t="s">
+      <c r="T13" s="1" t="s">
         <v>155</v>
       </c>
       <c r="U13">
         <v>25.043333333333333</v>
       </c>
-      <c r="V13" s="137" t="s">
+      <c r="V13" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="W13" s="137" t="s">
+      <c r="W13" s="1" t="s">
         <v>157</v>
       </c>
       <c r="X13">
         <v>25.040972222222219</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="137" t="s">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B14" s="137" t="s">
+      <c r="B14" s="1" t="s">
         <v>159</v>
       </c>
       <c r="C14">
         <v>23.676527777777778</v>
       </c>
-      <c r="D14" s="137" t="s">
+      <c r="D14" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E14" s="137" t="s">
+      <c r="E14" s="1" t="s">
         <v>161</v>
       </c>
       <c r="F14">
         <v>23.624750000000002</v>
       </c>
-      <c r="G14" s="137" t="s">
+      <c r="G14" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="H14" s="137" t="s">
+      <c r="H14" s="1" t="s">
         <v>163</v>
       </c>
       <c r="I14">
         <v>23.630416666666669</v>
       </c>
-      <c r="J14" s="137" t="s">
+      <c r="J14" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="K14" s="137" t="s">
+      <c r="K14" s="1" t="s">
         <v>165</v>
       </c>
       <c r="L14">
         <v>23.641166666666667</v>
       </c>
-      <c r="M14" s="137" t="s">
+      <c r="M14" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="N14" s="137" t="s">
+      <c r="N14" s="1" t="s">
         <v>167</v>
       </c>
       <c r="O14">
         <v>23.647305555555555</v>
       </c>
-      <c r="P14" s="137" t="s">
+      <c r="P14" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="Q14" s="137" t="s">
+      <c r="Q14" s="1" t="s">
         <v>169</v>
       </c>
       <c r="R14">
         <v>23.648888888888891</v>
       </c>
-      <c r="S14" s="137" t="s">
+      <c r="S14" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="T14" s="137" t="s">
+      <c r="T14" s="1" t="s">
         <v>159</v>
       </c>
       <c r="U14">
         <v>23.665805555555554</v>
       </c>
-      <c r="V14" s="137" t="s">
+      <c r="V14" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="W14" s="137" t="s">
+      <c r="W14" s="1" t="s">
         <v>171</v>
       </c>
       <c r="X14">
         <v>23.676527777777778</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="137" t="s">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B15" s="137" t="s">
+      <c r="B15" s="1" t="s">
         <v>173</v>
       </c>
       <c r="C15">
         <v>22.197416666666665</v>
       </c>
-      <c r="D15" s="137" t="s">
+      <c r="D15" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E15" s="137" t="s">
+      <c r="E15" s="1" t="s">
         <v>175</v>
       </c>
       <c r="F15">
         <v>22.186666666666667</v>
       </c>
-      <c r="G15" s="137" t="s">
+      <c r="G15" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H15" s="137" t="s">
+      <c r="H15" s="1" t="s">
         <v>176</v>
       </c>
       <c r="I15">
         <v>22.197416666666665</v>
       </c>
-      <c r="J15" s="137" t="s">
+      <c r="J15" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="K15" s="137" t="s">
+      <c r="K15" s="1" t="s">
         <v>173</v>
       </c>
       <c r="L15">
         <v>22.194333333333336</v>
       </c>
-      <c r="M15" s="137" t="s">
+      <c r="M15" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="N15" s="137" t="s">
+      <c r="N15" s="1" t="s">
         <v>179</v>
       </c>
       <c r="O15">
         <v>22.188194444444445</v>
       </c>
-      <c r="P15" s="137" t="s">
+      <c r="P15" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="Q15" s="137" t="s">
+      <c r="Q15" s="1" t="s">
         <v>181</v>
       </c>
       <c r="R15">
         <v>22.189722222222223</v>
       </c>
-      <c r="S15" s="137" t="s">
+      <c r="S15" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="T15" s="137" t="s">
+      <c r="T15" s="1" t="s">
         <v>183</v>
       </c>
       <c r="U15">
         <v>21.848388888888888</v>
       </c>
-      <c r="V15" s="137" t="s">
+      <c r="V15" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="W15" s="137" t="s">
+      <c r="W15" s="1" t="s">
         <v>185</v>
       </c>
       <c r="X15">
         <v>22.182055555555554</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="137" t="s">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B16" s="137" t="s">
+      <c r="B16" s="1" t="s">
         <v>187</v>
       </c>
       <c r="C16">
         <v>47.551611111111107</v>
       </c>
-      <c r="D16" s="137" t="s">
+      <c r="D16" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E16" s="137" t="s">
+      <c r="E16" s="1" t="s">
         <v>189</v>
       </c>
       <c r="F16">
         <v>47.536138888888892</v>
       </c>
-      <c r="G16" s="137" t="s">
+      <c r="G16" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H16" s="137" t="s">
+      <c r="H16" s="1" t="s">
         <v>187</v>
       </c>
       <c r="I16">
         <v>47.551611111111107</v>
       </c>
-      <c r="J16" s="137" t="s">
+      <c r="J16" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="K16" s="137" t="s">
+      <c r="K16" s="1" t="s">
         <v>191</v>
       </c>
       <c r="L16">
         <v>47.531111111111116</v>
       </c>
-      <c r="M16" s="137" t="s">
+      <c r="M16" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="N16" s="137" t="s">
+      <c r="N16" s="1" t="s">
         <v>193</v>
       </c>
       <c r="O16">
         <v>47.510888888888893</v>
       </c>
-      <c r="P16" s="137" t="s">
+      <c r="P16" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="Q16" s="137" t="s">
+      <c r="Q16" s="1" t="s">
         <v>195</v>
       </c>
       <c r="R16">
         <v>46.193305555555554</v>
       </c>
-      <c r="S16" s="137" t="s">
+      <c r="S16" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="T16" s="137" t="s">
+      <c r="T16" s="1" t="s">
         <v>197</v>
       </c>
       <c r="U16">
         <v>47.431111111111115</v>
       </c>
-      <c r="V16" s="137" t="s">
+      <c r="V16" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="W16" s="137" t="s">
+      <c r="W16" s="1" t="s">
         <v>199</v>
       </c>
       <c r="X16">
         <v>47.521861111111114</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="137" t="s">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B17" s="137" t="s">
+      <c r="B17" s="1" t="s">
         <v>201</v>
       </c>
       <c r="C17">
         <v>21.467499999999998</v>
       </c>
-      <c r="D17" s="137" t="s">
+      <c r="D17" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E17" s="137" t="s">
+      <c r="E17" s="1" t="s">
         <v>202</v>
       </c>
       <c r="F17">
         <v>21.467499999999998</v>
       </c>
-      <c r="G17" s="137" t="s">
+      <c r="G17" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="H17" s="137" t="s">
+      <c r="H17" s="1" t="s">
         <v>204</v>
       </c>
       <c r="I17">
         <v>21.426000000000002</v>
       </c>
-      <c r="J17" s="137" t="s">
+      <c r="J17" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="K17" s="137" t="s">
+      <c r="K17" s="1" t="s">
         <v>206</v>
       </c>
       <c r="L17">
         <v>21.442388888888892</v>
       </c>
-      <c r="M17" s="137" t="s">
+      <c r="M17" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="N17" s="137" t="s">
+      <c r="N17" s="1" t="s">
         <v>208</v>
       </c>
       <c r="O17">
         <v>21.431583333333332</v>
       </c>
-      <c r="P17" s="137" t="s">
+      <c r="P17" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="Q17" s="137" t="s">
+      <c r="Q17" s="1" t="s">
         <v>201</v>
       </c>
       <c r="R17">
         <v>21.453972222222223</v>
       </c>
-      <c r="S17" s="137" t="s">
+      <c r="S17" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="T17" s="137" t="s">
+      <c r="T17" s="1" t="s">
         <v>211</v>
       </c>
       <c r="U17">
         <v>21.460750000000001</v>
       </c>
-      <c r="V17" s="137" t="s">
+      <c r="V17" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="W17" s="137" t="s">
+      <c r="W17" s="1" t="s">
         <v>213</v>
       </c>
       <c r="X17">
         <v>21.43641666666667</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="137" t="s">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B18" s="137" t="s">
+      <c r="B18" s="1" t="s">
         <v>215</v>
       </c>
       <c r="C18">
         <v>20.65988888888889</v>
       </c>
-      <c r="D18" s="137" t="s">
+      <c r="D18" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E18" s="137" t="s">
+      <c r="E18" s="1" t="s">
         <v>216</v>
       </c>
       <c r="F18">
         <v>20.65516666666667</v>
       </c>
-      <c r="G18" s="137" t="s">
+      <c r="G18" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="H18" s="137" t="s">
+      <c r="H18" s="1" t="s">
         <v>218</v>
       </c>
       <c r="I18">
         <v>20.65988888888889</v>
       </c>
-      <c r="J18" s="137" t="s">
+      <c r="J18" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="K18" s="137" t="s">
+      <c r="K18" s="1" t="s">
         <v>220</v>
       </c>
       <c r="L18">
         <v>20.656555555555556</v>
       </c>
-      <c r="M18" s="137" t="s">
+      <c r="M18" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="N18" s="137" t="s">
+      <c r="N18" s="1" t="s">
         <v>222</v>
       </c>
       <c r="O18">
         <v>20.644277777777777</v>
       </c>
-      <c r="P18" s="137" t="s">
+      <c r="P18" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="Q18" s="137" t="s">
+      <c r="Q18" s="1" t="s">
         <v>224</v>
       </c>
       <c r="R18">
         <v>20.656416666666665</v>
       </c>
-      <c r="S18" s="137" t="s">
+      <c r="S18" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="T18" s="137" t="s">
+      <c r="T18" s="1" t="s">
         <v>215</v>
       </c>
       <c r="U18">
         <v>20.633583333333331</v>
       </c>
-      <c r="V18" s="137" t="s">
+      <c r="V18" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="W18" s="137" t="s">
+      <c r="W18" s="1" t="s">
         <v>227</v>
       </c>
       <c r="X18">
         <v>20.608916666666669</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="137" t="s">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B19" s="137" t="s">
+      <c r="B19" s="1" t="s">
         <v>229</v>
       </c>
       <c r="C19">
         <v>25.11236111111111</v>
       </c>
-      <c r="D19" s="137" t="s">
+      <c r="D19" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E19" s="137" t="s">
+      <c r="E19" s="1" t="s">
         <v>231</v>
       </c>
       <c r="F19">
         <v>25.11236111111111</v>
       </c>
-      <c r="G19" s="137" t="s">
+      <c r="G19" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="H19" s="137" t="s">
+      <c r="H19" s="1" t="s">
         <v>233</v>
       </c>
       <c r="I19">
         <v>25.061666666666667</v>
       </c>
-      <c r="J19" s="137" t="s">
+      <c r="J19" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="K19" s="137" t="s">
+      <c r="K19" s="1" t="s">
         <v>234</v>
       </c>
       <c r="L19">
         <v>25.087138888888887</v>
       </c>
-      <c r="M19" s="137" t="s">
+      <c r="M19" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="N19" s="137" t="s">
+      <c r="N19" s="1" t="s">
         <v>236</v>
       </c>
       <c r="O19">
         <v>25.112138888888886</v>
       </c>
-      <c r="P19" s="137" t="s">
+      <c r="P19" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="Q19" s="137" t="s">
+      <c r="Q19" s="1" t="s">
         <v>229</v>
       </c>
       <c r="R19">
         <v>7.7747222222222225</v>
       </c>
-      <c r="S19" s="137" t="s">
+      <c r="S19" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="T19" s="137" t="s">
+      <c r="T19" s="1" t="s">
         <v>239</v>
       </c>
       <c r="U19">
         <v>23.725833333333334</v>
       </c>
-      <c r="V19" s="137" t="s">
+      <c r="V19" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="W19" s="137" t="s">
+      <c r="W19" s="1" t="s">
         <v>241</v>
       </c>
       <c r="X19">
         <v>25.038</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="137" t="s">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B20" s="137" t="s">
+      <c r="B20" s="1" t="s">
         <v>243</v>
       </c>
       <c r="C20">
         <v>24.646027777777775</v>
       </c>
-      <c r="D20" s="137" t="s">
+      <c r="D20" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E20" s="137" t="s">
+      <c r="E20" s="1" t="s">
         <v>244</v>
       </c>
       <c r="F20">
         <v>24.641999999999999</v>
       </c>
-      <c r="G20" s="137" t="s">
+      <c r="G20" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="H20" s="137" t="s">
+      <c r="H20" s="1" t="s">
         <v>246</v>
       </c>
       <c r="I20">
         <v>24.646027777777775</v>
       </c>
-      <c r="J20" s="137" t="s">
+      <c r="J20" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="K20" s="137" t="s">
+      <c r="K20" s="1" t="s">
         <v>243</v>
       </c>
       <c r="L20">
         <v>24.637722222222223</v>
       </c>
-      <c r="M20" s="137" t="s">
+      <c r="M20" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="N20" s="137" t="s">
+      <c r="N20" s="1" t="s">
         <v>249</v>
       </c>
       <c r="O20">
         <v>24.638666666666666</v>
       </c>
-      <c r="P20" s="137" t="s">
+      <c r="P20" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="Q20" s="137" t="s">
+      <c r="Q20" s="1" t="s">
         <v>251</v>
       </c>
       <c r="R20">
         <v>9.8225277777777773</v>
       </c>
-      <c r="S20" s="137" t="s">
+      <c r="S20" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="T20" s="137" t="s">
+      <c r="T20" s="1" t="s">
         <v>253</v>
       </c>
       <c r="U20">
         <v>24.633527777777775</v>
       </c>
-      <c r="V20" s="137" t="s">
+      <c r="V20" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="W20" s="137" t="s">
+      <c r="W20" s="1" t="s">
         <v>255</v>
       </c>
       <c r="X20">
         <v>24.637416666666663</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="137" t="s">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B21" s="137" t="s">
+      <c r="B21" s="1" t="s">
         <v>257</v>
       </c>
       <c r="C21">
         <v>44.494138888888884</v>
       </c>
-      <c r="D21" s="137" t="s">
+      <c r="D21" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E21" s="137" t="s">
+      <c r="E21" s="1" t="s">
         <v>259</v>
       </c>
       <c r="F21">
         <v>44.494138888888884</v>
       </c>
-      <c r="G21" s="137" t="s">
+      <c r="G21" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="H21" s="137" t="s">
+      <c r="H21" s="1" t="s">
         <v>257</v>
       </c>
       <c r="I21">
         <v>23.246472222222224</v>
       </c>
-      <c r="J21" s="137" t="s">
+      <c r="J21" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="K21" s="137" t="s">
+      <c r="K21" s="1" t="s">
         <v>261</v>
       </c>
       <c r="L21">
         <v>26.575166666666668</v>
       </c>
-      <c r="M21" s="137" t="s">
+      <c r="M21" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="N21" s="137" t="s">
+      <c r="N21" s="1" t="s">
         <v>263</v>
       </c>
       <c r="O21">
         <v>44.311083333333336</v>
       </c>
-      <c r="P21" s="137" t="s">
+      <c r="P21" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="Q21" s="137" t="s">
+      <c r="Q21" s="1" t="s">
         <v>265</v>
       </c>
       <c r="R21">
         <v>44.467305555555548</v>
       </c>
-      <c r="S21" s="137" t="s">
+      <c r="S21" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="T21" s="137" t="s">
+      <c r="T21" s="1" t="s">
         <v>267</v>
       </c>
       <c r="U21">
         <v>44.447361111111114</v>
       </c>
-      <c r="V21" s="137" t="s">
+      <c r="V21" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="W21" s="137" t="s">
+      <c r="W21" s="1" t="s">
         <v>269</v>
       </c>
       <c r="X21">
         <v>44.445583333333339</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="137" t="s">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B22" s="137" t="s">
+      <c r="B22" s="1" t="s">
         <v>271</v>
       </c>
       <c r="C22">
         <v>24.106722222222221</v>
       </c>
-      <c r="D22" s="137" t="s">
+      <c r="D22" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E22" s="137" t="s">
+      <c r="E22" s="1" t="s">
         <v>273</v>
       </c>
       <c r="F22">
         <v>24.05297222222222</v>
       </c>
-      <c r="G22" s="137" t="s">
+      <c r="G22" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="H22" s="137" t="s">
+      <c r="H22" s="1" t="s">
         <v>271</v>
       </c>
       <c r="I22">
         <v>22.883722222222222</v>
       </c>
-      <c r="J22" s="137" t="s">
+      <c r="J22" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="K22" s="137" t="s">
+      <c r="K22" s="1" t="s">
         <v>275</v>
       </c>
       <c r="L22">
         <v>24.106722222222221</v>
       </c>
-      <c r="M22" s="137" t="s">
+      <c r="M22" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="N22" s="137" t="s">
+      <c r="N22" s="1" t="s">
         <v>277</v>
       </c>
       <c r="O22">
         <v>24.093555555555557</v>
       </c>
-      <c r="P22" s="137" t="s">
+      <c r="P22" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Q22" s="137" t="s">
+      <c r="Q22" s="1" t="s">
         <v>279</v>
       </c>
       <c r="R22">
         <v>24.062722222222224</v>
       </c>
-      <c r="S22" s="137" t="s">
+      <c r="S22" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="T22" s="137" t="s">
+      <c r="T22" s="1" t="s">
         <v>281</v>
       </c>
       <c r="U22">
         <v>24.05436111111111</v>
       </c>
-      <c r="V22" s="137" t="s">
+      <c r="V22" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="W22" s="137" t="s">
+      <c r="W22" s="1" t="s">
         <v>283</v>
       </c>
       <c r="X22">
         <v>24.070361111111115</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="137" t="s">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B23" s="137" t="s">
+      <c r="B23" s="1" t="s">
         <v>285</v>
       </c>
       <c r="C23">
         <v>17.111249999999998</v>
       </c>
-      <c r="D23" s="137" t="s">
+      <c r="D23" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E23" s="137" t="s">
+      <c r="E23" s="1" t="s">
         <v>286</v>
       </c>
       <c r="F23">
         <v>17.111249999999998</v>
       </c>
-      <c r="G23" s="137" t="s">
+      <c r="G23" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="H23" s="137" t="s">
+      <c r="H23" s="1" t="s">
         <v>288</v>
       </c>
       <c r="I23">
         <v>17.081138888888891</v>
       </c>
-      <c r="J23" s="137" t="s">
+      <c r="J23" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="K23" s="137" t="s">
+      <c r="K23" s="1" t="s">
         <v>290</v>
       </c>
       <c r="L23">
         <v>17.054333333333332</v>
       </c>
-      <c r="M23" s="137" t="s">
+      <c r="M23" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="N23" s="137" t="s">
+      <c r="N23" s="1" t="s">
         <v>292</v>
       </c>
       <c r="O23">
         <v>17.077194444444444</v>
       </c>
-      <c r="P23" s="137" t="s">
+      <c r="P23" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="Q23" s="137" t="s">
+      <c r="Q23" s="1" t="s">
         <v>294</v>
       </c>
       <c r="R23">
         <v>17.088277777777776</v>
       </c>
-      <c r="S23" s="137" t="s">
+      <c r="S23" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="T23" s="137" t="s">
+      <c r="T23" s="1" t="s">
         <v>285</v>
       </c>
       <c r="U23">
         <v>5.0882500000000004</v>
       </c>
-      <c r="V23" s="137" t="s">
+      <c r="V23" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="W23" s="137" t="s">
+      <c r="W23" s="1" t="s">
         <v>297</v>
       </c>
       <c r="X23">
         <v>17.083833333333335</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="137" t="s">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B24" s="137" t="s">
+      <c r="B24" s="1" t="s">
         <v>299</v>
       </c>
       <c r="C24">
         <v>22.109083333333331</v>
       </c>
-      <c r="D24" s="137" t="s">
+      <c r="D24" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="E24" s="137" t="s">
+      <c r="E24" s="1" t="s">
         <v>300</v>
       </c>
       <c r="F24">
         <v>22.105166666666669</v>
       </c>
-      <c r="G24" s="137" t="s">
+      <c r="G24" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H24" s="137" t="s">
+      <c r="H24" s="1" t="s">
         <v>302</v>
       </c>
       <c r="I24">
         <v>22.107500000000002</v>
       </c>
-      <c r="J24" s="137" t="s">
+      <c r="J24" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="K24" s="137" t="s">
+      <c r="K24" s="1" t="s">
         <v>299</v>
       </c>
       <c r="L24">
         <v>22.109083333333331</v>
       </c>
-      <c r="M24" s="137" t="s">
+      <c r="M24" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="N24" s="137" t="s">
+      <c r="N24" s="1" t="s">
         <v>305</v>
       </c>
       <c r="O24">
         <v>22.10275</v>
       </c>
-      <c r="P24" s="137" t="s">
+      <c r="P24" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="Q24" s="137" t="s">
+      <c r="Q24" s="1" t="s">
         <v>307</v>
       </c>
       <c r="R24">
         <v>22.105555555555554</v>
       </c>
-      <c r="S24" s="137" t="s">
+      <c r="S24" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="T24" s="137" t="s">
+      <c r="T24" s="1" t="s">
         <v>309</v>
       </c>
       <c r="U24">
         <v>22.107500000000002</v>
       </c>
-      <c r="V24" s="137" t="s">
+      <c r="V24" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="W24" s="137" t="s">
+      <c r="W24" s="1" t="s">
         <v>311</v>
       </c>
       <c r="X24">
         <v>22.106777777777776</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="137" t="s">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B25" s="137" t="s">
+      <c r="B25" s="1" t="s">
         <v>313</v>
       </c>
       <c r="C25">
         <v>24.154472222222225</v>
       </c>
-      <c r="D25" s="137" t="s">
+      <c r="D25" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="E25" s="137" t="s">
+      <c r="E25" s="1" t="s">
         <v>313</v>
       </c>
       <c r="F25">
         <v>24.154472222222225</v>
       </c>
-      <c r="G25" s="137" t="s">
+      <c r="G25" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="H25" s="137" t="s">
+      <c r="H25" s="1" t="s">
         <v>315</v>
       </c>
       <c r="I25">
         <v>24.151027777777777</v>
       </c>
-      <c r="J25" s="137" t="s">
+      <c r="J25" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="K25" s="137" t="s">
+      <c r="K25" s="1" t="s">
         <v>317</v>
       </c>
       <c r="L25">
         <v>24.148583333333331</v>
       </c>
-      <c r="M25" s="137" t="s">
+      <c r="M25" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="N25" s="137" t="s">
+      <c r="N25" s="1" t="s">
         <v>319</v>
       </c>
       <c r="O25">
         <v>24.146055555555556</v>
       </c>
-      <c r="P25" s="137" t="s">
+      <c r="P25" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="Q25" s="137" t="s">
+      <c r="Q25" s="1" t="s">
         <v>321</v>
       </c>
       <c r="R25">
         <v>24.13561111111111</v>
       </c>
-      <c r="S25" s="137" t="s">
+      <c r="S25" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="T25" s="137" t="s">
+      <c r="T25" s="1" t="s">
         <v>323</v>
       </c>
       <c r="U25">
         <v>24.131027777777778</v>
       </c>
-      <c r="V25" s="137" t="s">
+      <c r="V25" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="W25" s="137" t="s">
+      <c r="W25" s="1" t="s">
         <v>325</v>
       </c>
       <c r="X25">
         <v>24.09127777777778</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="137" t="s">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B26" s="137" t="s">
+      <c r="B26" s="1" t="s">
         <v>327</v>
       </c>
       <c r="C26">
         <v>29.327527777777782</v>
       </c>
-      <c r="D26" s="137" t="s">
+      <c r="D26" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="E26" s="137" t="s">
+      <c r="E26" s="1" t="s">
         <v>327</v>
       </c>
       <c r="F26">
         <v>29.327527777777782</v>
       </c>
-      <c r="G26" s="137" t="s">
+      <c r="G26" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="H26" s="137" t="s">
+      <c r="H26" s="1" t="s">
         <v>329</v>
       </c>
       <c r="I26">
         <v>26.101722222222222</v>
       </c>
-      <c r="J26" s="137" t="s">
+      <c r="J26" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="K26" s="137" t="s">
+      <c r="K26" s="1" t="s">
         <v>331</v>
       </c>
       <c r="L26">
         <v>29.299194444444446</v>
       </c>
-      <c r="M26" s="137" t="s">
+      <c r="M26" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="N26" s="137" t="s">
+      <c r="N26" s="1" t="s">
         <v>333</v>
       </c>
       <c r="O26">
         <v>29.305361111111111</v>
       </c>
-      <c r="P26" s="137" t="s">
+      <c r="P26" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="Q26" s="137" t="s">
+      <c r="Q26" s="1" t="s">
         <v>335</v>
       </c>
       <c r="R26">
         <v>29.321777777777775</v>
       </c>
-      <c r="S26" s="137" t="s">
+      <c r="S26" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="T26" s="137" t="s">
+      <c r="T26" s="1" t="s">
         <v>337</v>
       </c>
       <c r="U26">
         <v>3.584111111111111</v>
       </c>
-      <c r="V26" s="137" t="s">
+      <c r="V26" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="W26" s="137" t="s">
+      <c r="W26" s="1" t="s">
         <v>339</v>
       </c>
       <c r="X26">
         <v>29.315055555555553</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="137" t="s">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B27" s="137" t="s">
+      <c r="B27" s="1" t="s">
         <v>341</v>
       </c>
       <c r="C27">
         <v>23.428472222222222</v>
       </c>
-      <c r="D27" s="137" t="s">
+      <c r="D27" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="E27" s="137" t="s">
+      <c r="E27" s="1" t="s">
         <v>343</v>
       </c>
       <c r="F27">
         <v>23.376972222222221</v>
       </c>
-      <c r="G27" s="137" t="s">
+      <c r="G27" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="H27" s="137" t="s">
+      <c r="H27" s="1" t="s">
         <v>345</v>
       </c>
       <c r="I27">
         <v>23.408027777777775</v>
       </c>
-      <c r="J27" s="137" t="s">
+      <c r="J27" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="K27" s="137" t="s">
+      <c r="K27" s="1" t="s">
         <v>341</v>
       </c>
       <c r="L27">
         <v>23.428472222222222</v>
       </c>
-      <c r="M27" s="137" t="s">
+      <c r="M27" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="N27" s="137" t="s">
+      <c r="N27" s="1" t="s">
         <v>347</v>
       </c>
       <c r="O27">
         <v>23.415944444444442</v>
       </c>
-      <c r="P27" s="137" t="s">
+      <c r="P27" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="Q27" s="137" t="s">
+      <c r="Q27" s="1" t="s">
         <v>349</v>
       </c>
       <c r="R27">
         <v>23.369416666666666</v>
       </c>
-      <c r="S27" s="137" t="s">
+      <c r="S27" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="T27" s="137" t="s">
+      <c r="T27" s="1" t="s">
         <v>351</v>
       </c>
       <c r="U27">
         <v>23.394027777777776</v>
       </c>
-      <c r="V27" s="137" t="s">
+      <c r="V27" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="W27" s="137" t="s">
+      <c r="W27" s="1" t="s">
         <v>353</v>
       </c>
       <c r="X27">
         <v>23.385305555555554</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="137" t="s">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B28" s="137" t="s">
+      <c r="B28" s="1" t="s">
         <v>355</v>
       </c>
       <c r="C28">
         <v>21.147333333333332</v>
       </c>
-      <c r="D28" s="137" t="s">
+      <c r="D28" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E28" s="137" t="s">
+      <c r="E28" s="1" t="s">
         <v>356</v>
       </c>
       <c r="F28">
         <v>21.129527777777778</v>
       </c>
-      <c r="G28" s="137" t="s">
+      <c r="G28" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="H28" s="137" t="s">
+      <c r="H28" s="1" t="s">
         <v>358</v>
       </c>
       <c r="I28">
         <v>21.130444444444446</v>
       </c>
-      <c r="J28" s="137" t="s">
+      <c r="J28" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="K28" s="137" t="s">
+      <c r="K28" s="1" t="s">
         <v>360</v>
       </c>
       <c r="L28">
         <v>21.141888888888889</v>
       </c>
-      <c r="M28" s="137" t="s">
+      <c r="M28" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="N28" s="137" t="s">
+      <c r="N28" s="1" t="s">
         <v>355</v>
       </c>
       <c r="O28">
         <v>21.147333333333332</v>
       </c>
-      <c r="P28" s="137" t="s">
+      <c r="P28" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="Q28" s="137" t="s">
+      <c r="Q28" s="1" t="s">
         <v>363</v>
       </c>
       <c r="R28">
         <v>19.038</v>
       </c>
-      <c r="S28" s="137" t="s">
+      <c r="S28" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="T28" s="137" t="s">
+      <c r="T28" s="1" t="s">
         <v>365</v>
       </c>
       <c r="U28">
         <v>21.108694444444446</v>
       </c>
-      <c r="V28" s="137" t="s">
+      <c r="V28" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="W28" s="137" t="s">
+      <c r="W28" s="1" t="s">
         <v>367</v>
       </c>
       <c r="X28">
         <v>21.116472222222225</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="137" t="s">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B29" s="137" t="s">
+      <c r="B29" s="1" t="s">
         <v>369</v>
       </c>
       <c r="C29">
         <v>25.612111111111112</v>
       </c>
-      <c r="D29" s="137" t="s">
+      <c r="D29" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="E29" s="137" t="s">
+      <c r="E29" s="1" t="s">
         <v>370</v>
       </c>
       <c r="F29">
         <v>25.612111111111112</v>
       </c>
-      <c r="G29" s="137" t="s">
+      <c r="G29" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="H29" s="137" t="s">
+      <c r="H29" s="1" t="s">
         <v>372</v>
       </c>
       <c r="I29">
         <v>25.573555555555558</v>
       </c>
-      <c r="J29" s="137" t="s">
+      <c r="J29" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="K29" s="137" t="s">
+      <c r="K29" s="1" t="s">
         <v>374</v>
       </c>
       <c r="L29">
         <v>25.555333333333333</v>
       </c>
-      <c r="M29" s="137" t="s">
+      <c r="M29" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="N29" s="137" t="s">
+      <c r="N29" s="1" t="s">
         <v>376</v>
       </c>
       <c r="O29">
         <v>22.539277777777777</v>
       </c>
-      <c r="P29" s="137" t="s">
+      <c r="P29" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="Q29" s="137" t="s">
+      <c r="Q29" s="1" t="s">
         <v>369</v>
       </c>
       <c r="R29">
         <v>25.60391666666667</v>
       </c>
-      <c r="S29" s="137" t="s">
+      <c r="S29" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="T29" s="137" t="s">
+      <c r="T29" s="1" t="s">
         <v>379</v>
       </c>
       <c r="U29">
         <v>25.59502777777778</v>
       </c>
-      <c r="V29" s="137" t="s">
+      <c r="V29" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="W29" s="137" t="s">
+      <c r="W29" s="1" t="s">
         <v>381</v>
       </c>
       <c r="X29">
         <v>25.576000000000004</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="137" t="s">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B30" s="137" t="s">
+      <c r="B30" s="1" t="s">
         <v>383</v>
       </c>
       <c r="C30">
         <v>23.531388888888891</v>
       </c>
-      <c r="D30" s="137" t="s">
+      <c r="D30" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="E30" s="137" t="s">
+      <c r="E30" s="1" t="s">
         <v>383</v>
       </c>
       <c r="F30">
         <v>23.515444444444444</v>
       </c>
-      <c r="G30" s="137" t="s">
+      <c r="G30" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="H30" s="137" t="s">
+      <c r="H30" s="1" t="s">
         <v>385</v>
       </c>
       <c r="I30">
         <v>23.531388888888891</v>
       </c>
-      <c r="J30" s="137" t="s">
+      <c r="J30" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="K30" s="137" t="s">
+      <c r="K30" s="1" t="s">
         <v>387</v>
       </c>
       <c r="L30">
         <v>23.524583333333332</v>
       </c>
-      <c r="M30" s="137" t="s">
+      <c r="M30" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="N30" s="137" t="s">
+      <c r="N30" s="1" t="s">
         <v>389</v>
       </c>
       <c r="O30">
         <v>23.514333333333337</v>
       </c>
-      <c r="P30" s="137" t="s">
+      <c r="P30" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="Q30" s="137" t="s">
+      <c r="Q30" s="1" t="s">
         <v>391</v>
       </c>
       <c r="R30">
         <v>23.52438888888889</v>
       </c>
-      <c r="S30" s="137" t="s">
+      <c r="S30" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="T30" s="137" t="s">
+      <c r="T30" s="1" t="s">
         <v>393</v>
       </c>
       <c r="U30">
         <v>23.522916666666667</v>
       </c>
-      <c r="V30" s="137" t="s">
+      <c r="V30" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="W30" s="137" t="s">
+      <c r="W30" s="1" t="s">
         <v>389</v>
       </c>
       <c r="X30">
         <v>23.514333333333337</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="137" t="s">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B31" s="137" t="s">
+      <c r="B31" s="1" t="s">
         <v>395</v>
       </c>
       <c r="C31">
         <v>21.852250000000002</v>
       </c>
-      <c r="D31" s="137" t="s">
+      <c r="D31" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="E31" s="137" t="s">
+      <c r="E31" s="1" t="s">
         <v>397</v>
       </c>
       <c r="F31">
         <v>21.845861111111113</v>
       </c>
-      <c r="G31" s="137" t="s">
+      <c r="G31" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="H31" s="137" t="s">
+      <c r="H31" s="1" t="s">
         <v>399</v>
       </c>
       <c r="I31">
         <v>21.823694444444445</v>
       </c>
-      <c r="J31" s="137" t="s">
+      <c r="J31" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="K31" s="137" t="s">
+      <c r="K31" s="1" t="s">
         <v>401</v>
       </c>
       <c r="L31">
         <v>21.84363888888889</v>
       </c>
-      <c r="M31" s="137" t="s">
+      <c r="M31" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="N31" s="137" t="s">
+      <c r="N31" s="1" t="s">
         <v>403</v>
       </c>
       <c r="O31">
         <v>21.831333333333337</v>
       </c>
-      <c r="P31" s="137" t="s">
+      <c r="P31" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="Q31" s="137" t="s">
+      <c r="Q31" s="1" t="s">
         <v>395</v>
       </c>
       <c r="R31">
         <v>21.852250000000002</v>
       </c>
-      <c r="S31" s="137" t="s">
+      <c r="S31" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="T31" s="137" t="s">
+      <c r="T31" s="1" t="s">
         <v>405</v>
       </c>
       <c r="U31">
         <v>21.835777777777778</v>
       </c>
-      <c r="V31" s="137" t="s">
+      <c r="V31" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="W31" s="137" t="s">
+      <c r="W31" s="1" t="s">
         <v>407</v>
       </c>
       <c r="X31">
         <v>21.847333333333331</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="137" t="s">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B32" s="137" t="s">
+      <c r="B32" s="1" t="s">
         <v>409</v>
       </c>
       <c r="C32">
         <v>23.300722222222227</v>
       </c>
-      <c r="D32" s="137" t="s">
+      <c r="D32" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="E32" s="137" t="s">
+      <c r="E32" s="1" t="s">
         <v>411</v>
       </c>
       <c r="F32">
         <v>23.257611111111107</v>
       </c>
-      <c r="G32" s="137" t="s">
+      <c r="G32" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="H32" s="137" t="s">
+      <c r="H32" s="1" t="s">
         <v>413</v>
       </c>
       <c r="I32">
         <v>23.289305555555554</v>
       </c>
-      <c r="J32" s="137" t="s">
+      <c r="J32" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K32" s="137" t="s">
+      <c r="K32" s="1" t="s">
         <v>409</v>
       </c>
       <c r="L32">
         <v>23.300722222222227</v>
       </c>
-      <c r="M32" s="137" t="s">
+      <c r="M32" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="N32" s="137" t="s">
+      <c r="N32" s="1" t="s">
         <v>415</v>
       </c>
       <c r="O32">
         <v>23.295749999999998</v>
       </c>
-      <c r="P32" s="137" t="s">
+      <c r="P32" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="Q32" s="137" t="s">
+      <c r="Q32" s="1" t="s">
         <v>417</v>
       </c>
       <c r="R32">
         <v>23.262944444444447</v>
       </c>
-      <c r="S32" s="137" t="s">
+      <c r="S32" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="T32" s="137" t="s">
+      <c r="T32" s="1" t="s">
         <v>419</v>
       </c>
       <c r="U32">
         <v>23.282638888888886</v>
       </c>
-      <c r="V32" s="137" t="s">
+      <c r="V32" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="W32" s="137" t="s">
+      <c r="W32" s="1" t="s">
         <v>421</v>
       </c>
       <c r="X32">
         <v>23.263972222222222</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="137" t="s">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B33" s="137" t="s">
+      <c r="B33" s="1" t="s">
         <v>423</v>
       </c>
       <c r="C33">
         <v>23.369166666666668</v>
       </c>
-      <c r="D33" s="137" t="s">
+      <c r="D33" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="E33" s="137" t="s">
+      <c r="E33" s="1" t="s">
         <v>424</v>
       </c>
       <c r="F33">
         <v>23.3645</v>
       </c>
-      <c r="G33" s="137" t="s">
+      <c r="G33" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="H33" s="137" t="s">
+      <c r="H33" s="1" t="s">
         <v>426</v>
       </c>
       <c r="I33">
         <v>23.367277777777776</v>
       </c>
-      <c r="J33" s="137" t="s">
+      <c r="J33" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="K33" s="137" t="s">
+      <c r="K33" s="1" t="s">
         <v>423</v>
       </c>
       <c r="L33">
         <v>23.369166666666668</v>
       </c>
-      <c r="M33" s="137" t="s">
+      <c r="M33" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="N33" s="137" t="s">
+      <c r="N33" s="1" t="s">
         <v>429</v>
       </c>
       <c r="O33">
         <v>23.368000000000002</v>
       </c>
-      <c r="P33" s="137" t="s">
+      <c r="P33" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="Q33" s="137" t="s">
+      <c r="Q33" s="1" t="s">
         <v>431</v>
       </c>
       <c r="R33">
         <v>23.364944444444447</v>
       </c>
-      <c r="S33" s="137" t="s">
+      <c r="S33" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="T33" s="137" t="s">
+      <c r="T33" s="1" t="s">
         <v>433</v>
       </c>
       <c r="U33">
         <v>23.362000000000002</v>
       </c>
-      <c r="V33" s="137" t="s">
+      <c r="V33" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="W33" s="137" t="s">
+      <c r="W33" s="1" t="s">
         <v>435</v>
       </c>
       <c r="X33">
         <v>23.365694444444443</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="137" t="s">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B34" s="137" t="s">
+      <c r="B34" s="1" t="s">
         <v>437</v>
       </c>
       <c r="C34">
         <v>24.781611111111111</v>
       </c>
-      <c r="D34" s="137" t="s">
+      <c r="D34" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="E34" s="137" t="s">
+      <c r="E34" s="1" t="s">
         <v>439</v>
       </c>
       <c r="F34">
         <v>24.71425</v>
       </c>
-      <c r="G34" s="137" t="s">
+      <c r="G34" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="H34" s="137" t="s">
+      <c r="H34" s="1" t="s">
         <v>440</v>
       </c>
       <c r="I34">
         <v>19.371805555555557</v>
       </c>
-      <c r="J34" s="137" t="s">
+      <c r="J34" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="K34" s="137" t="s">
+      <c r="K34" s="1" t="s">
         <v>442</v>
       </c>
       <c r="L34">
         <v>24.724305555555553</v>
       </c>
-      <c r="M34" s="137" t="s">
+      <c r="M34" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="N34" s="137" t="s">
+      <c r="N34" s="1" t="s">
         <v>444</v>
       </c>
       <c r="O34">
         <v>24.730416666666667</v>
       </c>
-      <c r="P34" s="137" t="s">
+      <c r="P34" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="Q34" s="137" t="s">
+      <c r="Q34" s="1" t="s">
         <v>446</v>
       </c>
       <c r="R34">
         <v>24.748444444444441</v>
       </c>
-      <c r="S34" s="137" t="s">
+      <c r="S34" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="T34" s="137" t="s">
+      <c r="T34" s="1" t="s">
         <v>448</v>
       </c>
       <c r="U34">
         <v>24.770444444444443</v>
       </c>
-      <c r="V34" s="137" t="s">
+      <c r="V34" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="W34" s="137" t="s">
+      <c r="W34" s="1" t="s">
         <v>437</v>
       </c>
       <c r="X34">
         <v>24.781611111111111</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="137" t="s">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B35" s="137" t="s">
+      <c r="B35" s="1" t="s">
         <v>451</v>
       </c>
       <c r="C35">
         <v>23.128138888888888</v>
       </c>
-      <c r="D35" s="137" t="s">
+      <c r="D35" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="E35" s="137" t="s">
+      <c r="E35" s="1" t="s">
         <v>451</v>
       </c>
       <c r="F35">
         <v>23.128138888888888</v>
       </c>
-      <c r="G35" s="137" t="s">
+      <c r="G35" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="H35" s="137" t="s">
+      <c r="H35" s="1" t="s">
         <v>453</v>
       </c>
       <c r="I35">
         <v>23.10575</v>
       </c>
-      <c r="J35" s="137" t="s">
+      <c r="J35" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="K35" s="137" t="s">
+      <c r="K35" s="1" t="s">
         <v>455</v>
       </c>
       <c r="L35">
         <v>23.095777777777776</v>
       </c>
-      <c r="M35" s="137" t="s">
+      <c r="M35" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="N35" s="137" t="s">
+      <c r="N35" s="1" t="s">
         <v>457</v>
       </c>
       <c r="O35">
         <v>23.098055555555558</v>
       </c>
-      <c r="P35" s="137" t="s">
+      <c r="P35" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="Q35" s="137" t="s">
+      <c r="Q35" s="1" t="s">
         <v>459</v>
       </c>
       <c r="R35">
         <v>18.406916666666667</v>
       </c>
-      <c r="S35" s="137" t="s">
+      <c r="S35" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="T35" s="137" t="s">
+      <c r="T35" s="1" t="s">
         <v>461</v>
       </c>
       <c r="U35">
         <v>23.110027777777777</v>
       </c>
-      <c r="V35" s="137" t="s">
+      <c r="V35" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="W35" s="137" t="s">
+      <c r="W35" s="1" t="s">
         <v>463</v>
       </c>
       <c r="X35">
         <v>23.105388888888889</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="137" t="s">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B36" s="137" t="s">
+      <c r="B36" s="1" t="s">
         <v>465</v>
       </c>
       <c r="C36">
         <v>29.511277777777778</v>
       </c>
-      <c r="D36" s="137" t="s">
+      <c r="D36" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="E36" s="137" t="s">
+      <c r="E36" s="1" t="s">
         <v>466</v>
       </c>
       <c r="F36">
         <v>17.18213888888889</v>
       </c>
-      <c r="G36" s="137" t="s">
+      <c r="G36" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="H36" s="137" t="s">
+      <c r="H36" s="1" t="s">
         <v>468</v>
       </c>
       <c r="I36">
         <v>29.478694444444447</v>
       </c>
-      <c r="J36" s="137" t="s">
+      <c r="J36" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="K36" s="137" t="s">
+      <c r="K36" s="1" t="s">
         <v>470</v>
       </c>
       <c r="L36">
         <v>17.94736111111111</v>
       </c>
-      <c r="M36" s="137" t="s">
+      <c r="M36" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="N36" s="137" t="s">
+      <c r="N36" s="1" t="s">
         <v>472</v>
       </c>
       <c r="O36">
         <v>29.46188888888889</v>
       </c>
-      <c r="P36" s="137" t="s">
+      <c r="P36" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="Q36" s="137" t="s">
+      <c r="Q36" s="1" t="s">
         <v>474</v>
       </c>
       <c r="R36">
         <v>29.511277777777778</v>
       </c>
-      <c r="S36" s="137" t="s">
+      <c r="S36" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="T36" s="137" t="s">
+      <c r="T36" s="1" t="s">
         <v>465</v>
       </c>
       <c r="U36">
         <v>29.50675</v>
       </c>
-      <c r="V36" s="137" t="s">
+      <c r="V36" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="W36" s="137" t="s">
+      <c r="W36" s="1" t="s">
         <v>477</v>
       </c>
       <c r="X36">
         <v>28.228000000000002</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="137" t="s">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="B37" s="137" t="s">
+      <c r="B37" s="1" t="s">
         <v>479</v>
       </c>
       <c r="C37">
         <v>22.458500000000001</v>
       </c>
-      <c r="D37" s="137" t="s">
+      <c r="D37" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E37" s="137" t="s">
+      <c r="E37" s="1" t="s">
         <v>481</v>
       </c>
       <c r="F37">
         <v>21.141416666666668</v>
       </c>
-      <c r="G37" s="137" t="s">
+      <c r="G37" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="H37" s="137" t="s">
+      <c r="H37" s="1" t="s">
         <v>479</v>
       </c>
       <c r="I37">
         <v>22.458500000000001</v>
       </c>
-      <c r="J37" s="137" t="s">
+      <c r="J37" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="K37" s="137" t="s">
+      <c r="K37" s="1" t="s">
         <v>484</v>
       </c>
       <c r="L37">
         <v>15.703333333333335</v>
       </c>
-      <c r="M37" s="137" t="s">
+      <c r="M37" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="N37" s="137" t="s">
+      <c r="N37" s="1" t="s">
         <v>486</v>
       </c>
       <c r="O37">
         <v>22.348638888888892</v>
       </c>
-      <c r="P37" s="137" t="s">
+      <c r="P37" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="Q37" s="137" t="s">
+      <c r="Q37" s="1" t="s">
         <v>488</v>
       </c>
       <c r="R37">
         <v>22.364722222222223</v>
       </c>
-      <c r="S37" s="137" t="s">
+      <c r="S37" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="T37" s="137" t="s">
+      <c r="T37" s="1" t="s">
         <v>489</v>
       </c>
       <c r="U37">
         <v>22.370805555555553</v>
       </c>
-      <c r="V37" s="137" t="s">
+      <c r="V37" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="W37" s="137" t="s">
+      <c r="W37" s="1" t="s">
         <v>486</v>
       </c>
       <c r="X37">
         <v>22.348638888888892</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="137" t="s">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B38" s="137" t="s">
+      <c r="B38" s="1" t="s">
         <v>491</v>
       </c>
       <c r="C38">
         <v>24.421166666666668</v>
       </c>
-      <c r="D38" s="137" t="s">
+      <c r="D38" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="E38" s="137" t="s">
+      <c r="E38" s="1" t="s">
         <v>492</v>
       </c>
       <c r="F38">
         <v>24.413694444444445</v>
       </c>
-      <c r="G38" s="137" t="s">
+      <c r="G38" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="H38" s="137" t="s">
+      <c r="H38" s="1" t="s">
         <v>494</v>
       </c>
       <c r="I38">
         <v>24.409055555555558</v>
       </c>
-      <c r="J38" s="137" t="s">
+      <c r="J38" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="K38" s="137" t="s">
+      <c r="K38" s="1" t="s">
         <v>496</v>
       </c>
       <c r="L38">
         <v>24.334333333333337</v>
       </c>
-      <c r="M38" s="137" t="s">
+      <c r="M38" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="N38" s="137" t="s">
+      <c r="N38" s="1" t="s">
         <v>498</v>
       </c>
       <c r="O38">
         <v>24.396194444444447</v>
       </c>
-      <c r="P38" s="137" t="s">
+      <c r="P38" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="Q38" s="137" t="s">
+      <c r="Q38" s="1" t="s">
         <v>500</v>
       </c>
       <c r="R38">
         <v>21.16547222222222</v>
       </c>
-      <c r="S38" s="137" t="s">
+      <c r="S38" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="T38" s="137" t="s">
+      <c r="T38" s="1" t="s">
         <v>502</v>
       </c>
       <c r="U38">
         <v>24.421166666666668</v>
       </c>
-      <c r="V38" s="137" t="s">
+      <c r="V38" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="W38" s="137" t="s">
+      <c r="W38" s="1" t="s">
         <v>491</v>
       </c>
       <c r="X38">
         <v>24.306666666666668</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="137" t="s">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="B39" s="137" t="s">
+      <c r="B39" s="1" t="s">
         <v>505</v>
       </c>
       <c r="C39">
         <v>42.897972222222229</v>
       </c>
-      <c r="D39" s="137" t="s">
+      <c r="D39" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="E39" s="137" t="s">
+      <c r="E39" s="1" t="s">
         <v>507</v>
       </c>
       <c r="F39">
         <v>41.75127777777778</v>
       </c>
-      <c r="G39" s="137" t="s">
+      <c r="G39" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="H39" s="137" t="s">
+      <c r="H39" s="1" t="s">
         <v>509</v>
       </c>
       <c r="I39">
         <v>42.800333333333334</v>
       </c>
-      <c r="J39" s="137" t="s">
+      <c r="J39" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="K39" s="137" t="s">
+      <c r="K39" s="1" t="s">
         <v>505</v>
       </c>
       <c r="L39">
         <v>19.017916666666668</v>
       </c>
-      <c r="M39" s="137" t="s">
+      <c r="M39" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="N39" s="137" t="s">
+      <c r="N39" s="1" t="s">
         <v>512</v>
       </c>
       <c r="O39">
         <v>18.472416666666668</v>
       </c>
-      <c r="P39" s="137" t="s">
+      <c r="P39" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="Q39" s="137" t="s">
+      <c r="Q39" s="1" t="s">
         <v>514</v>
       </c>
       <c r="R39">
         <v>42.845361111111103</v>
       </c>
-      <c r="S39" s="137" t="s">
+      <c r="S39" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="T39" s="137" t="s">
+      <c r="T39" s="1" t="s">
         <v>515</v>
       </c>
       <c r="U39">
         <v>42.897972222222229</v>
       </c>
-      <c r="V39" s="137" t="s">
+      <c r="V39" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="W39" s="137" t="s">
+      <c r="W39" s="1" t="s">
         <v>515</v>
       </c>
       <c r="X39">
         <v>42.897972222222229</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="137" t="s">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B40" s="137" t="s">
+      <c r="B40" s="1" t="s">
         <v>517</v>
       </c>
       <c r="C40">
         <v>43.661722222222224</v>
       </c>
-      <c r="D40" s="137" t="s">
+      <c r="D40" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="E40" s="137" t="s">
+      <c r="E40" s="1" t="s">
         <v>519</v>
       </c>
       <c r="F40">
         <v>43.648666666666671</v>
       </c>
-      <c r="G40" s="137" t="s">
+      <c r="G40" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="H40" s="137" t="s">
+      <c r="H40" s="1" t="s">
         <v>521</v>
       </c>
       <c r="I40">
         <v>42.326305555555557</v>
       </c>
-      <c r="J40" s="137" t="s">
+      <c r="J40" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="K40" s="137" t="s">
+      <c r="K40" s="1" t="s">
         <v>523</v>
       </c>
       <c r="L40">
         <v>43.655972222222218</v>
       </c>
-      <c r="M40" s="137" t="s">
+      <c r="M40" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="N40" s="137" t="s">
+      <c r="N40" s="1" t="s">
         <v>517</v>
       </c>
       <c r="O40">
         <v>43.661722222222224</v>
       </c>
-      <c r="P40" s="137" t="s">
+      <c r="P40" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="Q40" s="137" t="s">
+      <c r="Q40" s="1" t="s">
         <v>525</v>
       </c>
       <c r="R40">
         <v>43.652888888888889</v>
       </c>
-      <c r="S40" s="137" t="s">
+      <c r="S40" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="T40" s="137" t="s">
+      <c r="T40" s="1" t="s">
         <v>527</v>
       </c>
       <c r="U40">
         <v>43.637638888888887</v>
       </c>
-      <c r="V40" s="137" t="s">
+      <c r="V40" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="W40" s="137" t="s">
+      <c r="W40" s="1" t="s">
         <v>519</v>
       </c>
       <c r="X40">
         <v>43.648666666666671</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="137" t="s">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="B41" s="137" t="s">
+      <c r="B41" s="1" t="s">
         <v>529</v>
       </c>
       <c r="C41">
         <v>20.598916666666671</v>
       </c>
-      <c r="D41" s="137" t="s">
+      <c r="D41" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="E41" s="137" t="s">
+      <c r="E41" s="1" t="s">
         <v>531</v>
       </c>
       <c r="F41">
         <v>20.554972222222219</v>
       </c>
-      <c r="G41" s="137" t="s">
+      <c r="G41" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="H41" s="137" t="s">
+      <c r="H41" s="1" t="s">
         <v>533</v>
       </c>
       <c r="I41">
         <v>20.598916666666671</v>
       </c>
-      <c r="J41" s="137" t="s">
+      <c r="J41" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="K41" s="137" t="s">
+      <c r="K41" s="1" t="s">
         <v>534</v>
       </c>
       <c r="L41">
         <v>12.803750000000001</v>
       </c>
-      <c r="M41" s="137" t="s">
+      <c r="M41" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="N41" s="137" t="s">
+      <c r="N41" s="1" t="s">
         <v>536</v>
       </c>
       <c r="O41">
         <v>20.564499999999999</v>
       </c>
-      <c r="P41" s="137" t="s">
+      <c r="P41" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="Q41" s="137" t="s">
+      <c r="Q41" s="1" t="s">
         <v>538</v>
       </c>
       <c r="R41">
         <v>20.545500000000001</v>
       </c>
-      <c r="S41" s="137" t="s">
+      <c r="S41" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="T41" s="137" t="s">
+      <c r="T41" s="1" t="s">
         <v>529</v>
       </c>
       <c r="U41">
         <v>20.563416666666669</v>
       </c>
-      <c r="V41" s="137" t="s">
+      <c r="V41" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="W41" s="137" t="s">
+      <c r="W41" s="1" t="s">
         <v>531</v>
       </c>
       <c r="X41">
         <v>20.554972222222219</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="137" t="s">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="B42" s="137" t="s">
+      <c r="B42" s="1" t="s">
         <v>541</v>
       </c>
       <c r="C42">
         <v>25.043194444444445</v>
       </c>
-      <c r="D42" s="137" t="s">
+      <c r="D42" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="E42" s="137" t="s">
+      <c r="E42" s="1" t="s">
         <v>543</v>
       </c>
       <c r="F42">
         <v>24.950111111111109</v>
       </c>
-      <c r="G42" s="137" t="s">
+      <c r="G42" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="H42" s="137" t="s">
+      <c r="H42" s="1" t="s">
         <v>545</v>
       </c>
       <c r="I42">
         <v>24.981638888888888</v>
       </c>
-      <c r="J42" s="137" t="s">
+      <c r="J42" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="K42" s="137" t="s">
+      <c r="K42" s="1" t="s">
         <v>546</v>
       </c>
       <c r="L42">
         <v>25.043194444444445</v>
       </c>
-      <c r="M42" s="137" t="s">
+      <c r="M42" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="N42" s="137" t="s">
+      <c r="N42" s="1" t="s">
         <v>548</v>
       </c>
       <c r="O42">
         <v>24.916166666666665</v>
       </c>
-      <c r="P42" s="137" t="s">
+      <c r="P42" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="Q42" s="137" t="s">
+      <c r="Q42" s="1" t="s">
         <v>541</v>
       </c>
       <c r="R42">
         <v>24.947916666666668</v>
       </c>
-      <c r="S42" s="137" t="s">
+      <c r="S42" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="T42" s="137" t="s">
+      <c r="T42" s="1" t="s">
         <v>551</v>
       </c>
       <c r="U42">
         <v>24.946944444444444</v>
       </c>
-      <c r="V42" s="137" t="s">
+      <c r="V42" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="W42" s="137" t="s">
+      <c r="W42" s="1" t="s">
         <v>543</v>
       </c>
       <c r="X42">
         <v>24.950111111111109</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="137" t="s">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="B43" s="137" t="s">
+      <c r="B43" s="1" t="s">
         <v>546</v>
       </c>
       <c r="C43">
         <v>25.043194444444445</v>
       </c>
-      <c r="D43" s="137" t="s">
+      <c r="D43" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="E43" s="137" t="s">
+      <c r="E43" s="1" t="s">
         <v>554</v>
       </c>
       <c r="F43">
         <v>23.727083333333333</v>
       </c>
-      <c r="G43" s="137" t="s">
+      <c r="G43" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="H43" s="137" t="s">
+      <c r="H43" s="1" t="s">
         <v>556</v>
       </c>
       <c r="I43">
         <v>23.807833333333335</v>
       </c>
-      <c r="J43" s="137" t="s">
+      <c r="J43" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="K43" s="137" t="s">
+      <c r="K43" s="1" t="s">
         <v>546</v>
       </c>
       <c r="L43">
         <v>25.043194444444445</v>
       </c>
-      <c r="M43" s="137" t="s">
+      <c r="M43" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="N43" s="137" t="s">
+      <c r="N43" s="1" t="s">
         <v>558</v>
       </c>
       <c r="O43">
         <v>23.750138888888891</v>
       </c>
-      <c r="P43" s="137" t="s">
+      <c r="P43" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="Q43" s="137" t="s">
+      <c r="Q43" s="1" t="s">
         <v>560</v>
       </c>
       <c r="R43">
         <v>23.810916666666667</v>
       </c>
-      <c r="S43" s="137" t="s">
+      <c r="S43" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="T43" s="137" t="s">
+      <c r="T43" s="1" t="s">
         <v>561</v>
       </c>
       <c r="U43">
         <v>23.81002777777778</v>
       </c>
-      <c r="V43" s="137" t="s">
+      <c r="V43" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="W43" s="137" t="s">
+      <c r="W43" s="1" t="s">
         <v>563</v>
       </c>
       <c r="X43">
         <v>23.804083333333331</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="137" t="s">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="B44" s="137" t="s">
+      <c r="B44" s="1" t="s">
         <v>565</v>
       </c>
       <c r="C44">
         <v>22.539555555555555</v>
       </c>
-      <c r="D44" s="137" t="s">
+      <c r="D44" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="E44" s="137" t="s">
+      <c r="E44" s="1" t="s">
         <v>567</v>
       </c>
       <c r="F44">
         <v>22.51113888888889</v>
       </c>
-      <c r="G44" s="137" t="s">
+      <c r="G44" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="H44" s="137" t="s">
+      <c r="H44" s="1" t="s">
         <v>565</v>
       </c>
       <c r="I44">
         <v>20.75408333333333</v>
       </c>
-      <c r="J44" s="137" t="s">
+      <c r="J44" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="K44" s="137" t="s">
+      <c r="K44" s="1" t="s">
         <v>570</v>
       </c>
       <c r="L44">
         <v>10.726444444444443</v>
       </c>
-      <c r="M44" s="137" t="s">
+      <c r="M44" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="N44" s="137" t="s">
+      <c r="N44" s="1" t="s">
         <v>572</v>
       </c>
       <c r="O44">
         <v>22.48469444444444</v>
       </c>
-      <c r="P44" s="137" t="s">
+      <c r="P44" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="Q44" s="137" t="s">
+      <c r="Q44" s="1" t="s">
         <v>574</v>
       </c>
       <c r="R44">
         <v>22.501166666666666</v>
       </c>
-      <c r="S44" s="137" t="s">
+      <c r="S44" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="T44" s="137" t="s">
+      <c r="T44" s="1" t="s">
         <v>575</v>
       </c>
       <c r="U44">
         <v>22.539555555555555</v>
       </c>
-      <c r="V44" s="137" t="s">
+      <c r="V44" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="W44" s="137" t="s">
+      <c r="W44" s="1" t="s">
         <v>575</v>
       </c>
       <c r="X44">
         <v>22.539555555555555</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="137" t="s">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="B45" s="137" t="s">
+      <c r="B45" s="1" t="s">
         <v>577</v>
       </c>
       <c r="C45">
         <v>28.852083333333333</v>
       </c>
-      <c r="D45" s="137" t="s">
+      <c r="D45" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="E45" s="137" t="s">
+      <c r="E45" s="1" t="s">
         <v>577</v>
       </c>
       <c r="F45">
         <v>28.852083333333333</v>
       </c>
-      <c r="G45" s="137" t="s">
+      <c r="G45" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="H45" s="137" t="s">
+      <c r="H45" s="1" t="s">
         <v>579</v>
       </c>
       <c r="I45">
         <v>28.724750000000004</v>
       </c>
-      <c r="J45" s="137" t="s">
+      <c r="J45" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="K45" s="137" t="s">
+      <c r="K45" s="1" t="s">
         <v>581</v>
       </c>
       <c r="L45">
         <v>28.822722222222225</v>
       </c>
-      <c r="M45" s="137" t="s">
+      <c r="M45" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="N45" s="137" t="s">
+      <c r="N45" s="1" t="s">
         <v>583</v>
       </c>
       <c r="O45">
         <v>28.831194444444446</v>
       </c>
-      <c r="P45" s="137" t="s">
+      <c r="P45" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="Q45" s="137" t="s">
+      <c r="Q45" s="1" t="s">
         <v>585</v>
       </c>
       <c r="R45">
         <v>28.846722222222223</v>
       </c>
-      <c r="S45" s="137" t="s">
+      <c r="S45" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="T45" s="137" t="s">
+      <c r="T45" s="1" t="s">
         <v>587</v>
       </c>
       <c r="U45">
         <v>28.825972222222223</v>
       </c>
-      <c r="V45" s="137" t="s">
+      <c r="V45" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="W45" s="137" t="s">
+      <c r="W45" s="1" t="s">
         <v>589</v>
       </c>
       <c r="X45">
         <v>28.832416666666667</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="137" t="s">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="B46" s="137" t="s">
+      <c r="B46" s="1" t="s">
         <v>591</v>
       </c>
       <c r="C46">
         <v>23.128916666666669</v>
       </c>
-      <c r="D46" s="137" t="s">
+      <c r="D46" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="E46" s="137" t="s">
+      <c r="E46" s="1" t="s">
         <v>592</v>
       </c>
       <c r="F46">
         <v>23.12608333333333</v>
       </c>
-      <c r="G46" s="137" t="s">
+      <c r="G46" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="H46" s="137" t="s">
+      <c r="H46" s="1" t="s">
         <v>594</v>
       </c>
       <c r="I46">
         <v>23.128916666666669</v>
       </c>
-      <c r="J46" s="137" t="s">
+      <c r="J46" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="K46" s="137" t="s">
+      <c r="K46" s="1" t="s">
         <v>591</v>
       </c>
       <c r="L46">
         <v>23.120944444444444</v>
       </c>
-      <c r="M46" s="137" t="s">
+      <c r="M46" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="N46" s="137" t="s">
+      <c r="N46" s="1" t="s">
         <v>597</v>
       </c>
       <c r="O46">
         <v>23.12136111111111</v>
       </c>
-      <c r="P46" s="137" t="s">
+      <c r="P46" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="Q46" s="137" t="s">
+      <c r="Q46" s="1" t="s">
         <v>599</v>
       </c>
       <c r="R46">
         <v>23.127055555555554</v>
       </c>
-      <c r="S46" s="137" t="s">
+      <c r="S46" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="T46" s="137" t="s">
+      <c r="T46" s="1" t="s">
         <v>601</v>
       </c>
       <c r="U46">
         <v>23.113583333333331</v>
       </c>
-      <c r="V46" s="137" t="s">
+      <c r="V46" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="W46" s="137" t="s">
+      <c r="W46" s="1" t="s">
         <v>603</v>
       </c>
       <c r="X46">
         <v>23.125388888888889</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="137" t="s">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="B47" s="137" t="s">
+      <c r="B47" s="1" t="s">
         <v>605</v>
       </c>
       <c r="C47">
         <v>22.813944444444441</v>
       </c>
-      <c r="D47" s="137" t="s">
+      <c r="D47" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="E47" s="137" t="s">
+      <c r="E47" s="1" t="s">
         <v>606</v>
       </c>
       <c r="F47">
         <v>22.813944444444441</v>
       </c>
-      <c r="G47" s="137" t="s">
+      <c r="G47" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="H47" s="137" t="s">
+      <c r="H47" s="1" t="s">
         <v>608</v>
       </c>
       <c r="I47">
         <v>22.803638888888891</v>
       </c>
-      <c r="J47" s="137" t="s">
+      <c r="J47" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="K47" s="137" t="s">
+      <c r="K47" s="1" t="s">
         <v>610</v>
       </c>
       <c r="L47">
         <v>22.781472222222224</v>
       </c>
-      <c r="M47" s="137" t="s">
+      <c r="M47" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="N47" s="137" t="s">
+      <c r="N47" s="1" t="s">
         <v>605</v>
       </c>
       <c r="O47">
         <v>5.4330277777777782</v>
       </c>
-      <c r="P47" s="137" t="s">
+      <c r="P47" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="Q47" s="137" t="s">
+      <c r="Q47" s="1" t="s">
         <v>613</v>
       </c>
       <c r="R47">
         <v>22.81122222222222</v>
       </c>
-      <c r="S47" s="137" t="s">
+      <c r="S47" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="T47" s="137" t="s">
+      <c r="T47" s="1" t="s">
         <v>615</v>
       </c>
       <c r="U47">
         <v>13.345583333333334</v>
       </c>
-      <c r="V47" s="137" t="s">
+      <c r="V47" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="W47" s="137" t="s">
+      <c r="W47" s="1" t="s">
         <v>617</v>
       </c>
       <c r="X47">
         <v>22.394138888888889</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="137" t="s">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="B48" s="137" t="s">
+      <c r="B48" s="1" t="s">
         <v>619</v>
       </c>
       <c r="C48">
         <v>23.072277777777778</v>
       </c>
-      <c r="D48" s="137" t="s">
+      <c r="D48" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="E48" s="137" t="s">
+      <c r="E48" s="1" t="s">
         <v>621</v>
       </c>
       <c r="F48">
         <v>23.070749999999997</v>
       </c>
-      <c r="G48" s="137" t="s">
+      <c r="G48" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="H48" s="137" t="s">
+      <c r="H48" s="1" t="s">
         <v>622</v>
       </c>
       <c r="I48">
         <v>22.966222222222218</v>
       </c>
-      <c r="J48" s="137" t="s">
+      <c r="J48" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="K48" s="137" t="s">
+      <c r="K48" s="1" t="s">
         <v>624</v>
       </c>
       <c r="L48">
         <v>23.070749999999997</v>
       </c>
-      <c r="M48" s="137" t="s">
+      <c r="M48" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="N48" s="137" t="s">
+      <c r="N48" s="1" t="s">
         <v>619</v>
       </c>
       <c r="O48">
         <v>23.072277777777778</v>
       </c>
-      <c r="P48" s="137" t="s">
+      <c r="P48" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="Q48" s="137" t="s">
+      <c r="Q48" s="1" t="s">
         <v>627</v>
       </c>
       <c r="R48">
         <v>23.072277777777778</v>
       </c>
-      <c r="S48" s="137" t="s">
+      <c r="S48" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="T48" s="137" t="s">
+      <c r="T48" s="1" t="s">
         <v>629</v>
       </c>
       <c r="U48">
         <v>23.070749999999997</v>
       </c>
-      <c r="V48" s="137" t="s">
+      <c r="V48" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="W48" s="137" t="s">
+      <c r="W48" s="1" t="s">
         <v>631</v>
       </c>
       <c r="X48">
         <v>23.061527777777776</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="137" t="s">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="B49" s="137" t="s">
+      <c r="B49" s="1" t="s">
         <v>633</v>
       </c>
       <c r="C49">
         <v>22.851166666666664</v>
       </c>
-      <c r="D49" s="137" t="s">
+      <c r="D49" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="E49" s="137" t="s">
+      <c r="E49" s="1" t="s">
         <v>633</v>
       </c>
       <c r="F49">
         <v>22.851166666666664</v>
       </c>
-      <c r="G49" s="137" t="s">
+      <c r="G49" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="H49" s="137" t="s">
+      <c r="H49" s="1" t="s">
         <v>635</v>
       </c>
       <c r="I49">
         <v>22.831694444444448</v>
       </c>
-      <c r="J49" s="137" t="s">
+      <c r="J49" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="K49" s="137" t="s">
+      <c r="K49" s="1" t="s">
         <v>637</v>
       </c>
       <c r="L49">
         <v>22.827888888888886</v>
       </c>
-      <c r="M49" s="137" t="s">
+      <c r="M49" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="N49" s="137" t="s">
+      <c r="N49" s="1" t="s">
         <v>639</v>
       </c>
       <c r="O49">
         <v>22.828222222222223</v>
       </c>
-      <c r="P49" s="137" t="s">
+      <c r="P49" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="Q49" s="137" t="s">
+      <c r="Q49" s="1" t="s">
         <v>641</v>
       </c>
       <c r="R49">
         <v>22.822194444444442</v>
       </c>
-      <c r="S49" s="137" t="s">
+      <c r="S49" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="T49" s="137" t="s">
+      <c r="T49" s="1" t="s">
         <v>643</v>
       </c>
       <c r="U49">
         <v>22.832222222222224</v>
       </c>
-      <c r="V49" s="137" t="s">
+      <c r="V49" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="W49" s="137" t="s">
+      <c r="W49" s="1" t="s">
         <v>645</v>
       </c>
       <c r="X49">
         <v>22.82225</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="137" t="s">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="B50" s="137" t="s">
+      <c r="B50" s="1" t="s">
         <v>647</v>
       </c>
       <c r="C50">
         <v>24.636194444444445</v>
       </c>
-      <c r="D50" s="137" t="s">
+      <c r="D50" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="E50" s="137" t="s">
+      <c r="E50" s="1" t="s">
         <v>647</v>
       </c>
       <c r="F50">
         <v>24.605777777777782</v>
       </c>
-      <c r="G50" s="137" t="s">
+      <c r="G50" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="H50" s="137" t="s">
+      <c r="H50" s="1" t="s">
         <v>650</v>
       </c>
       <c r="I50">
         <v>24.622138888888891</v>
       </c>
-      <c r="J50" s="137" t="s">
+      <c r="J50" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="K50" s="137" t="s">
+      <c r="K50" s="1" t="s">
         <v>651</v>
       </c>
       <c r="L50">
         <v>24.591361111111109</v>
       </c>
-      <c r="M50" s="137" t="s">
+      <c r="M50" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="N50" s="137" t="s">
+      <c r="N50" s="1" t="s">
         <v>653</v>
       </c>
       <c r="O50">
         <v>24.614027777777778</v>
       </c>
-      <c r="P50" s="137" t="s">
+      <c r="P50" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="Q50" s="137" t="s">
+      <c r="Q50" s="1" t="s">
         <v>655</v>
       </c>
       <c r="R50">
         <v>24.592083333333335</v>
       </c>
-      <c r="S50" s="137" t="s">
+      <c r="S50" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="T50" s="137" t="s">
+      <c r="T50" s="1" t="s">
         <v>657</v>
       </c>
       <c r="U50">
         <v>24.607611111111108</v>
       </c>
-      <c r="V50" s="137" t="s">
+      <c r="V50" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="W50" s="137" t="s">
+      <c r="W50" s="1" t="s">
         <v>659</v>
       </c>
       <c r="X50">
         <v>24.636194444444445</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="137" t="s">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="B51" s="137" t="s">
+      <c r="B51" s="1" t="s">
         <v>661</v>
       </c>
       <c r="C51">
         <v>24.673166666666663</v>
       </c>
-      <c r="D51" s="137" t="s">
+      <c r="D51" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="E51" s="137" t="s">
+      <c r="E51" s="1" t="s">
         <v>661</v>
       </c>
       <c r="F51">
         <v>24.673166666666663</v>
       </c>
-      <c r="G51" s="137" t="s">
+      <c r="G51" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="H51" s="137" t="s">
+      <c r="H51" s="1" t="s">
         <v>663</v>
       </c>
       <c r="I51">
         <v>24.650527777777775</v>
       </c>
-      <c r="J51" s="137" t="s">
+      <c r="J51" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="K51" s="137" t="s">
+      <c r="K51" s="1" t="s">
         <v>665</v>
       </c>
       <c r="L51">
         <v>20.145888888888887</v>
       </c>
-      <c r="M51" s="137" t="s">
+      <c r="M51" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="N51" s="137" t="s">
+      <c r="N51" s="1" t="s">
         <v>667</v>
       </c>
       <c r="O51">
         <v>24.645249999999997</v>
       </c>
-      <c r="P51" s="137" t="s">
+      <c r="P51" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="Q51" s="137" t="s">
+      <c r="Q51" s="1" t="s">
         <v>669</v>
       </c>
       <c r="R51">
         <v>24.666583333333332</v>
       </c>
-      <c r="S51" s="137" t="s">
+      <c r="S51" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="T51" s="137" t="s">
+      <c r="T51" s="1" t="s">
         <v>671</v>
       </c>
       <c r="U51">
         <v>24.617111111111114</v>
       </c>
-      <c r="V51" s="137" t="s">
+      <c r="V51" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="W51" s="137" t="s">
+      <c r="W51" s="1" t="s">
         <v>673</v>
       </c>
       <c r="X51">
         <v>24.66127777777778</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="137" t="s">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="B52" s="137" t="s">
+      <c r="B52" s="1" t="s">
         <v>675</v>
       </c>
       <c r="C52">
         <v>24.285527777777776</v>
       </c>
-      <c r="D52" s="137" t="s">
+      <c r="D52" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="E52" s="137" t="s">
+      <c r="E52" s="1" t="s">
         <v>676</v>
       </c>
       <c r="F52">
         <v>23.961583333333333</v>
       </c>
-      <c r="G52" s="137" t="s">
+      <c r="G52" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="H52" s="137" t="s">
+      <c r="H52" s="1" t="s">
         <v>678</v>
       </c>
       <c r="I52">
         <v>24.279083333333332</v>
       </c>
-      <c r="J52" s="137" t="s">
+      <c r="J52" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="K52" s="137" t="s">
+      <c r="K52" s="1" t="s">
         <v>675</v>
       </c>
       <c r="L52">
         <v>24.267527777777779</v>
       </c>
-      <c r="M52" s="137" t="s">
+      <c r="M52" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="N52" s="137" t="s">
+      <c r="N52" s="1" t="s">
         <v>681</v>
       </c>
       <c r="O52">
         <v>24.276722222222222</v>
       </c>
-      <c r="P52" s="137" t="s">
+      <c r="P52" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="Q52" s="137" t="s">
+      <c r="Q52" s="1" t="s">
         <v>683</v>
       </c>
       <c r="R52">
         <v>24.285527777777776</v>
       </c>
-      <c r="S52" s="137" t="s">
+      <c r="S52" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="T52" s="137" t="s">
+      <c r="T52" s="1" t="s">
         <v>685</v>
       </c>
       <c r="U52">
         <v>24.27877777777778</v>
       </c>
-      <c r="V52" s="137" t="s">
+      <c r="V52" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="W52" s="137" t="s">
+      <c r="W52" s="1" t="s">
         <v>687</v>
       </c>
       <c r="X52">
         <v>24.279416666666666</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="137" t="s">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="B53" s="137" t="s">
+      <c r="B53" s="1" t="s">
         <v>689</v>
       </c>
       <c r="C53">
         <v>26.462083333333332</v>
       </c>
-      <c r="D53" s="137" t="s">
+      <c r="D53" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="E53" s="137" t="s">
+      <c r="E53" s="1" t="s">
         <v>690</v>
       </c>
       <c r="F53">
         <v>26.462083333333332</v>
       </c>
-      <c r="G53" s="137" t="s">
+      <c r="G53" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="H53" s="137" t="s">
+      <c r="H53" s="1" t="s">
         <v>692</v>
       </c>
       <c r="I53">
         <v>26.436944444444446</v>
       </c>
-      <c r="J53" s="137" t="s">
+      <c r="J53" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="K53" s="137" t="s">
+      <c r="K53" s="1" t="s">
         <v>694</v>
       </c>
       <c r="L53">
         <v>26.422333333333331</v>
       </c>
-      <c r="M53" s="137" t="s">
+      <c r="M53" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="N53" s="137" t="s">
+      <c r="N53" s="1" t="s">
         <v>696</v>
       </c>
       <c r="O53">
         <v>26.429638888888885</v>
       </c>
-      <c r="P53" s="137" t="s">
+      <c r="P53" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="Q53" s="137" t="s">
+      <c r="Q53" s="1" t="s">
         <v>689</v>
       </c>
       <c r="R53">
         <v>7.9095555555555563</v>
       </c>
-      <c r="S53" s="137" t="s">
+      <c r="S53" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="T53" s="137" t="s">
+      <c r="T53" s="1" t="s">
         <v>699</v>
       </c>
       <c r="U53">
         <v>14.503305555555556</v>
       </c>
-      <c r="V53" s="137" t="s">
+      <c r="V53" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="W53" s="137" t="s">
+      <c r="W53" s="1" t="s">
         <v>701</v>
       </c>
       <c r="X53">
         <v>26.442499999999999</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="137" t="s">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="B54" s="137" t="s">
+      <c r="B54" s="1" t="s">
         <v>703</v>
       </c>
       <c r="C54">
         <v>20.252972222222223</v>
       </c>
-      <c r="D54" s="137" t="s">
+      <c r="D54" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="E54" s="137" t="s">
+      <c r="E54" s="1" t="s">
         <v>704</v>
       </c>
       <c r="F54">
         <v>20.252972222222223</v>
       </c>
-      <c r="G54" s="137" t="s">
+      <c r="G54" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="H54" s="137" t="s">
+      <c r="H54" s="1" t="s">
         <v>706</v>
       </c>
       <c r="I54">
         <v>20.229333333333333</v>
       </c>
-      <c r="J54" s="137" t="s">
+      <c r="J54" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="K54" s="137" t="s">
+      <c r="K54" s="1" t="s">
         <v>708</v>
       </c>
       <c r="L54">
         <v>20.230916666666666</v>
       </c>
-      <c r="M54" s="137" t="s">
+      <c r="M54" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="N54" s="137" t="s">
+      <c r="N54" s="1" t="s">
         <v>703</v>
       </c>
       <c r="O54">
         <v>6.5170000000000003</v>
       </c>
-      <c r="P54" s="137" t="s">
+      <c r="P54" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="Q54" s="137" t="s">
+      <c r="Q54" s="1" t="s">
         <v>711</v>
       </c>
       <c r="R54">
         <v>20.223666666666663</v>
       </c>
-      <c r="S54" s="137" t="s">
+      <c r="S54" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="T54" s="137" t="s">
+      <c r="T54" s="1" t="s">
         <v>713</v>
       </c>
       <c r="U54">
         <v>20.208527777777775</v>
       </c>
-      <c r="V54" s="137" t="s">
+      <c r="V54" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="W54" s="137" t="s">
+      <c r="W54" s="1" t="s">
         <v>715</v>
       </c>
       <c r="X54">
         <v>3.4369444444444444</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="137" t="s">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="B55" s="137" t="s">
+      <c r="B55" s="1" t="s">
         <v>717</v>
       </c>
       <c r="C55">
         <v>26.114305555555557</v>
       </c>
-      <c r="D55" s="137" t="s">
+      <c r="D55" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="E55" s="137" t="s">
+      <c r="E55" s="1" t="s">
         <v>719</v>
       </c>
       <c r="F55">
         <v>26.083027777777776</v>
       </c>
-      <c r="G55" s="137" t="s">
+      <c r="G55" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="H55" s="137" t="s">
+      <c r="H55" s="1" t="s">
         <v>721</v>
       </c>
       <c r="I55">
         <v>26.088222222222225</v>
       </c>
-      <c r="J55" s="137" t="s">
+      <c r="J55" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="K55" s="137" t="s">
+      <c r="K55" s="1" t="s">
         <v>723</v>
       </c>
       <c r="L55">
         <v>26.099138888888888</v>
       </c>
-      <c r="M55" s="137" t="s">
+      <c r="M55" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="N55" s="137" t="s">
+      <c r="N55" s="1" t="s">
         <v>725</v>
       </c>
       <c r="O55">
         <v>26.091916666666666</v>
       </c>
-      <c r="P55" s="137" t="s">
+      <c r="P55" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="Q55" s="137" t="s">
+      <c r="Q55" s="1" t="s">
         <v>727</v>
       </c>
       <c r="R55">
         <v>26.103749999999998</v>
       </c>
-      <c r="S55" s="137" t="s">
+      <c r="S55" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="T55" s="137" t="s">
+      <c r="T55" s="1" t="s">
         <v>717</v>
       </c>
       <c r="U55">
         <v>26.114305555555557</v>
       </c>
-      <c r="V55" s="137" t="s">
+      <c r="V55" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="W55" s="137" t="s">
+      <c r="W55" s="1" t="s">
         <v>729</v>
       </c>
       <c r="X55">
         <v>26.108944444444443</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="137" t="s">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="B56" s="137" t="s">
+      <c r="B56" s="1" t="s">
         <v>731</v>
       </c>
       <c r="C56">
         <v>25.826111111111111</v>
       </c>
-      <c r="D56" s="137" t="s">
+      <c r="D56" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="E56" s="137" t="s">
+      <c r="E56" s="1" t="s">
         <v>733</v>
       </c>
       <c r="F56">
         <v>5.2744722222222213</v>
       </c>
-      <c r="G56" s="137" t="s">
+      <c r="G56" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="H56" s="137" t="s">
+      <c r="H56" s="1" t="s">
         <v>734</v>
       </c>
       <c r="I56">
         <v>25.826111111111111</v>
       </c>
-      <c r="J56" s="137" t="s">
+      <c r="J56" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="K56" s="137" t="s">
+      <c r="K56" s="1" t="s">
         <v>731</v>
       </c>
       <c r="L56">
         <v>25.542972222222222</v>
       </c>
-      <c r="M56" s="137" t="s">
+      <c r="M56" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="N56" s="137" t="s">
+      <c r="N56" s="1" t="s">
         <v>737</v>
       </c>
       <c r="O56">
         <v>25.610444444444447</v>
       </c>
-      <c r="P56" s="137" t="s">
+      <c r="P56" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="Q56" s="137" t="s">
+      <c r="Q56" s="1" t="s">
         <v>739</v>
       </c>
       <c r="R56">
         <v>25.430305555555556</v>
       </c>
-      <c r="S56" s="137" t="s">
+      <c r="S56" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="T56" s="137" t="s">
+      <c r="T56" s="1" t="s">
         <v>741</v>
       </c>
       <c r="U56">
         <v>25.621027777777776</v>
       </c>
-      <c r="V56" s="137" t="s">
+      <c r="V56" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="W56" s="137" t="s">
+      <c r="W56" s="1" t="s">
         <v>743</v>
       </c>
       <c r="X56">
         <v>25.623666666666665</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="137" t="s">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="B57" s="137" t="s">
+      <c r="B57" s="1" t="s">
         <v>745</v>
       </c>
       <c r="C57">
         <v>22.913305555555553</v>
       </c>
-      <c r="D57" s="137" t="s">
+      <c r="D57" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="E57" s="137" t="s">
+      <c r="E57" s="1" t="s">
         <v>747</v>
       </c>
       <c r="F57">
         <v>22.893361111111112</v>
       </c>
-      <c r="G57" s="137" t="s">
+      <c r="G57" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="H57" s="137" t="s">
+      <c r="H57" s="1" t="s">
         <v>749</v>
       </c>
       <c r="I57">
         <v>22.885027777777779</v>
       </c>
-      <c r="J57" s="137" t="s">
+      <c r="J57" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="K57" s="137" t="s">
+      <c r="K57" s="1" t="s">
         <v>751</v>
       </c>
       <c r="L57">
         <v>22.686777777777774</v>
       </c>
-      <c r="M57" s="137" t="s">
+      <c r="M57" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="N57" s="137" t="s">
+      <c r="N57" s="1" t="s">
         <v>753</v>
       </c>
       <c r="O57">
         <v>22.865833333333335</v>
       </c>
-      <c r="P57" s="137" t="s">
+      <c r="P57" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="Q57" s="137" t="s">
+      <c r="Q57" s="1" t="s">
         <v>755</v>
       </c>
       <c r="R57">
         <v>22.913305555555553</v>
       </c>
-      <c r="S57" s="137" t="s">
+      <c r="S57" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="T57" s="137" t="s">
+      <c r="T57" s="1" t="s">
         <v>745</v>
       </c>
       <c r="U57">
         <v>22.908555555555555</v>
       </c>
-      <c r="V57" s="137" t="s">
+      <c r="V57" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="W57" s="137" t="s">
+      <c r="W57" s="1" t="s">
         <v>757</v>
       </c>
       <c r="X57">
         <v>22.902916666666666</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="137" t="s">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="B58" s="137" t="s">
+      <c r="B58" s="1" t="s">
         <v>759</v>
       </c>
       <c r="C58">
         <v>23.432527777777782</v>
       </c>
-      <c r="D58" s="137" t="s">
+      <c r="D58" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="E58" s="137" t="s">
+      <c r="E58" s="1" t="s">
         <v>761</v>
       </c>
       <c r="F58">
         <v>23.401277777777782</v>
       </c>
-      <c r="G58" s="137" t="s">
+      <c r="G58" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="H58" s="137" t="s">
+      <c r="H58" s="1" t="s">
         <v>763</v>
       </c>
       <c r="I58">
         <v>23.406166666666664</v>
       </c>
-      <c r="J58" s="137" t="s">
+      <c r="J58" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="K58" s="137" t="s">
+      <c r="K58" s="1" t="s">
         <v>765</v>
       </c>
       <c r="L58">
         <v>15.36275</v>
       </c>
-      <c r="M58" s="137" t="s">
+      <c r="M58" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="N58" s="137" t="s">
+      <c r="N58" s="1" t="s">
         <v>767</v>
       </c>
       <c r="O58">
         <v>23.349250000000001</v>
       </c>
-      <c r="P58" s="137" t="s">
+      <c r="P58" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="Q58" s="137" t="s">
+      <c r="Q58" s="1" t="s">
         <v>769</v>
       </c>
       <c r="R58">
         <v>23.419694444444442</v>
       </c>
-      <c r="S58" s="137" t="s">
+      <c r="S58" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="T58" s="137" t="s">
+      <c r="T58" s="1" t="s">
         <v>759</v>
       </c>
       <c r="U58">
         <v>23.432527777777782</v>
       </c>
-      <c r="V58" s="137" t="s">
+      <c r="V58" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="W58" s="137" t="s">
+      <c r="W58" s="1" t="s">
         <v>771</v>
       </c>
       <c r="X58">
         <v>23.412083333333332</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="137" t="s">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="B59" s="137" t="s">
+      <c r="B59" s="1" t="s">
         <v>773</v>
       </c>
       <c r="C59">
         <v>22.838333333333331</v>
       </c>
-      <c r="D59" s="137" t="s">
+      <c r="D59" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="E59" s="137" t="s">
+      <c r="E59" s="1" t="s">
         <v>775</v>
       </c>
       <c r="F59">
         <v>22.819750000000003</v>
       </c>
-      <c r="G59" s="137" t="s">
+      <c r="G59" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="H59" s="137" t="s">
+      <c r="H59" s="1" t="s">
         <v>773</v>
       </c>
       <c r="I59">
         <v>22.83752777777778</v>
       </c>
-      <c r="J59" s="137" t="s">
+      <c r="J59" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="K59" s="137" t="s">
+      <c r="K59" s="1" t="s">
         <v>777</v>
       </c>
       <c r="L59">
         <v>22.834944444444446</v>
       </c>
-      <c r="M59" s="137" t="s">
+      <c r="M59" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="N59" s="137" t="s">
+      <c r="N59" s="1" t="s">
         <v>779</v>
       </c>
       <c r="O59">
         <v>22.824194444444448</v>
       </c>
-      <c r="P59" s="137" t="s">
+      <c r="P59" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="Q59" s="137" t="s">
+      <c r="Q59" s="1" t="s">
         <v>781</v>
       </c>
       <c r="R59">
         <v>22.838333333333331</v>
       </c>
-      <c r="S59" s="137" t="s">
+      <c r="S59" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="T59" s="137" t="s">
+      <c r="T59" s="1" t="s">
         <v>783</v>
       </c>
       <c r="U59">
         <v>22.836166666666664</v>
       </c>
-      <c r="V59" s="137" t="s">
+      <c r="V59" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="W59" s="137" t="s">
+      <c r="W59" s="1" t="s">
         <v>785</v>
       </c>
       <c r="X59">
         <v>22.829638888888887</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="137" t="s">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="B60" s="137" t="s">
+      <c r="B60" s="1" t="s">
         <v>787</v>
       </c>
       <c r="C60">
         <v>24.601444444444443</v>
       </c>
-      <c r="D60" s="137" t="s">
+      <c r="D60" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="E60" s="137" t="s">
+      <c r="E60" s="1" t="s">
         <v>789</v>
       </c>
       <c r="F60">
         <v>24.580888888888886</v>
       </c>
-      <c r="G60" s="137" t="s">
+      <c r="G60" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="H60" s="137" t="s">
+      <c r="H60" s="1" t="s">
         <v>791</v>
       </c>
       <c r="I60">
         <v>24.585888888888885</v>
       </c>
-      <c r="J60" s="137" t="s">
+      <c r="J60" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="K60" s="137" t="s">
+      <c r="K60" s="1" t="s">
         <v>793</v>
       </c>
       <c r="L60">
         <v>24.591166666666666</v>
       </c>
-      <c r="M60" s="137" t="s">
+      <c r="M60" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="N60" s="137" t="s">
+      <c r="N60" s="1" t="s">
         <v>795</v>
       </c>
       <c r="O60">
         <v>24.585527777777777</v>
       </c>
-      <c r="P60" s="137" t="s">
+      <c r="P60" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="Q60" s="137" t="s">
+      <c r="Q60" s="1" t="s">
         <v>797</v>
       </c>
       <c r="R60">
         <v>24.601444444444443</v>
       </c>
-      <c r="S60" s="137" t="s">
+      <c r="S60" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="T60" s="137" t="s">
+      <c r="T60" s="1" t="s">
         <v>787</v>
       </c>
       <c r="U60">
         <v>6.0675555555555558</v>
       </c>
-      <c r="V60" s="137" t="s">
+      <c r="V60" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="W60" s="137" t="s">
+      <c r="W60" s="1" t="s">
         <v>799</v>
       </c>
       <c r="X60">
         <v>20.776361111111108</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="137" t="s">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="B61" s="137" t="s">
+      <c r="B61" s="1" t="s">
         <v>801</v>
       </c>
       <c r="C61">
         <v>25.58966666666667</v>
       </c>
-      <c r="D61" s="137" t="s">
+      <c r="D61" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="E61" s="137" t="s">
+      <c r="E61" s="1" t="s">
         <v>803</v>
       </c>
       <c r="F61">
         <v>25.549944444444446</v>
       </c>
-      <c r="G61" s="137" t="s">
+      <c r="G61" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="H61" s="137" t="s">
+      <c r="H61" s="1" t="s">
         <v>805</v>
       </c>
       <c r="I61">
         <v>25.556694444444449</v>
       </c>
-      <c r="J61" s="137" t="s">
+      <c r="J61" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="K61" s="137" t="s">
+      <c r="K61" s="1" t="s">
         <v>807</v>
       </c>
       <c r="L61">
         <v>25.564666666666668</v>
       </c>
-      <c r="M61" s="137" t="s">
+      <c r="M61" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="N61" s="137" t="s">
+      <c r="N61" s="1" t="s">
         <v>809</v>
       </c>
       <c r="O61">
         <v>25.562055555555553</v>
       </c>
-      <c r="P61" s="137" t="s">
+      <c r="P61" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="Q61" s="137" t="s">
+      <c r="Q61" s="1" t="s">
         <v>811</v>
       </c>
       <c r="R61">
         <v>25.580083333333334</v>
       </c>
-      <c r="S61" s="137" t="s">
+      <c r="S61" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="T61" s="137" t="s">
+      <c r="T61" s="1" t="s">
         <v>801</v>
       </c>
       <c r="U61">
         <v>25.58966666666667</v>
       </c>
-      <c r="V61" s="137" t="s">
+      <c r="V61" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="W61" s="137" t="s">
+      <c r="W61" s="1" t="s">
         <v>813</v>
       </c>
       <c r="X61">
         <v>25.585555555555558</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="137" t="s">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="B62" s="137" t="s">
+      <c r="B62" s="1" t="s">
         <v>815</v>
       </c>
       <c r="C62">
         <v>44.816472222222224</v>
       </c>
-      <c r="D62" s="137" t="s">
+      <c r="D62" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="E62" s="137" t="s">
+      <c r="E62" s="1" t="s">
         <v>817</v>
       </c>
       <c r="F62">
         <v>44.811361111111104</v>
       </c>
-      <c r="G62" s="137" t="s">
+      <c r="G62" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="H62" s="137" t="s">
+      <c r="H62" s="1" t="s">
         <v>819</v>
       </c>
       <c r="I62">
         <v>38.458666666666666</v>
       </c>
-      <c r="J62" s="137" t="s">
+      <c r="J62" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="K62" s="137" t="s">
+      <c r="K62" s="1" t="s">
         <v>820</v>
       </c>
       <c r="L62">
         <v>44.801166666666667</v>
       </c>
-      <c r="M62" s="137" t="s">
+      <c r="M62" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="N62" s="137" t="s">
+      <c r="N62" s="1" t="s">
         <v>822</v>
       </c>
       <c r="O62">
         <v>44.790194444444445</v>
       </c>
-      <c r="P62" s="137" t="s">
+      <c r="P62" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="Q62" s="137" t="s">
+      <c r="Q62" s="1" t="s">
         <v>815</v>
       </c>
       <c r="R62">
         <v>44.816472222222224</v>
       </c>
-      <c r="S62" s="137" t="s">
+      <c r="S62" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="T62" s="137" t="s">
+      <c r="T62" s="1" t="s">
         <v>825</v>
       </c>
       <c r="U62">
         <v>44.805083333333329</v>
       </c>
-      <c r="V62" s="137" t="s">
+      <c r="V62" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="W62" s="137" t="s">
+      <c r="W62" s="1" t="s">
         <v>817</v>
       </c>
       <c r="X62">
         <v>44.811361111111104</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="137" t="s">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="B63" s="137" t="s">
+      <c r="B63" s="1" t="s">
         <v>827</v>
       </c>
       <c r="C63">
         <v>24.251972222222221</v>
       </c>
-      <c r="D63" s="137" t="s">
+      <c r="D63" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="E63" s="137" t="s">
+      <c r="E63" s="1" t="s">
         <v>829</v>
       </c>
       <c r="F63">
         <v>24.225249999999999</v>
       </c>
-      <c r="G63" s="137" t="s">
+      <c r="G63" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="H63" s="137" t="s">
+      <c r="H63" s="1" t="s">
         <v>831</v>
       </c>
       <c r="I63">
         <v>24.251972222222221</v>
       </c>
-      <c r="J63" s="137" t="s">
+      <c r="J63" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="K63" s="137" t="s">
+      <c r="K63" s="1" t="s">
         <v>827</v>
       </c>
       <c r="L63">
         <v>24.249111111111112</v>
       </c>
-      <c r="M63" s="137" t="s">
+      <c r="M63" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="N63" s="137" t="s">
+      <c r="N63" s="1" t="s">
         <v>833</v>
       </c>
       <c r="O63">
         <v>24.199083333333331</v>
       </c>
-      <c r="P63" s="137" t="s">
+      <c r="P63" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="Q63" s="137" t="s">
+      <c r="Q63" s="1" t="s">
         <v>835</v>
       </c>
       <c r="R63">
         <v>24.234388888888887</v>
       </c>
-      <c r="S63" s="137" t="s">
+      <c r="S63" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="T63" s="137" t="s">
+      <c r="T63" s="1" t="s">
         <v>837</v>
       </c>
       <c r="U63">
         <v>24.245472222222222</v>
       </c>
-      <c r="V63" s="137" t="s">
+      <c r="V63" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="W63" s="137" t="s">
+      <c r="W63" s="1" t="s">
         <v>839</v>
       </c>
       <c r="X63">
         <v>24.181666666666668</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="137" t="s">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="B64" s="137" t="s">
+      <c r="B64" s="1" t="s">
         <v>841</v>
       </c>
       <c r="C64">
         <v>23.290694444444444</v>
       </c>
-      <c r="D64" s="137" t="s">
+      <c r="D64" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="E64" s="137" t="s">
+      <c r="E64" s="1" t="s">
         <v>843</v>
       </c>
       <c r="F64">
         <v>23.266805555555557</v>
       </c>
-      <c r="G64" s="137" t="s">
+      <c r="G64" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="H64" s="137" t="s">
+      <c r="H64" s="1" t="s">
         <v>845</v>
       </c>
       <c r="I64">
         <v>23.263527777777778</v>
       </c>
-      <c r="J64" s="137" t="s">
+      <c r="J64" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="K64" s="137" t="s">
+      <c r="K64" s="1" t="s">
         <v>847</v>
       </c>
       <c r="L64">
         <v>23.270333333333333</v>
       </c>
-      <c r="M64" s="137" t="s">
+      <c r="M64" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="N64" s="137" t="s">
+      <c r="N64" s="1" t="s">
         <v>849</v>
       </c>
       <c r="O64">
         <v>23.271250000000002</v>
       </c>
-      <c r="P64" s="137" t="s">
+      <c r="P64" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="Q64" s="137" t="s">
+      <c r="Q64" s="1" t="s">
         <v>851</v>
       </c>
       <c r="R64">
         <v>23.281333333333336</v>
       </c>
-      <c r="S64" s="137" t="s">
+      <c r="S64" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="T64" s="137" t="s">
+      <c r="T64" s="1" t="s">
         <v>852</v>
       </c>
       <c r="U64">
         <v>23.290694444444444</v>
       </c>
-      <c r="V64" s="137" t="s">
+      <c r="V64" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="W64" s="137" t="s">
+      <c r="W64" s="1" t="s">
         <v>841</v>
       </c>
       <c r="X64">
         <v>10.405083333333334</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="137" t="s">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="B65" s="137" t="s">
+      <c r="B65" s="1" t="s">
         <v>855</v>
       </c>
       <c r="C65">
         <v>24.068305555555551</v>
       </c>
-      <c r="D65" s="137" t="s">
+      <c r="D65" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="E65" s="137" t="s">
+      <c r="E65" s="1" t="s">
         <v>855</v>
       </c>
       <c r="F65">
         <v>24.001361111111109</v>
       </c>
-      <c r="G65" s="137" t="s">
+      <c r="G65" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="H65" s="137" t="s">
+      <c r="H65" s="1" t="s">
         <v>858</v>
       </c>
       <c r="I65">
         <v>24.065138888888889</v>
       </c>
-      <c r="J65" s="137" t="s">
+      <c r="J65" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="K65" s="137" t="s">
+      <c r="K65" s="1" t="s">
         <v>859</v>
       </c>
       <c r="L65">
         <v>24.068305555555551</v>
       </c>
-      <c r="M65" s="137" t="s">
+      <c r="M65" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="N65" s="137" t="s">
+      <c r="N65" s="1" t="s">
         <v>861</v>
       </c>
       <c r="O65">
         <v>20.316972222222223</v>
       </c>
-      <c r="P65" s="137" t="s">
+      <c r="P65" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="Q65" s="137" t="s">
+      <c r="Q65" s="1" t="s">
         <v>863</v>
       </c>
       <c r="R65">
         <v>24.065749999999998</v>
       </c>
-      <c r="S65" s="137" t="s">
+      <c r="S65" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="T65" s="137" t="s">
+      <c r="T65" s="1" t="s">
         <v>865</v>
       </c>
       <c r="U65">
         <v>24.066388888888888</v>
       </c>
-      <c r="V65" s="137" t="s">
+      <c r="V65" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="W65" s="137" t="s">
+      <c r="W65" s="1" t="s">
         <v>867</v>
       </c>
       <c r="X65">
         <v>23.346777777777778</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="137" t="s">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="B66" s="137" t="s">
+      <c r="B66" s="1" t="s">
         <v>869</v>
       </c>
       <c r="C66">
         <v>24.093666666666664</v>
       </c>
-      <c r="D66" s="137" t="s">
+      <c r="D66" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="E66" s="137" t="s">
+      <c r="E66" s="1" t="s">
         <v>869</v>
       </c>
       <c r="F66">
         <v>24.093666666666664</v>
       </c>
-      <c r="G66" s="137" t="s">
+      <c r="G66" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="H66" s="137" t="s">
+      <c r="H66" s="1" t="s">
         <v>872</v>
       </c>
       <c r="I66">
         <v>24.074138888888889</v>
       </c>
-      <c r="J66" s="137" t="s">
+      <c r="J66" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="K66" s="137" t="s">
+      <c r="K66" s="1" t="s">
         <v>873</v>
       </c>
       <c r="L66">
         <v>24.087583333333335</v>
       </c>
-      <c r="M66" s="137" t="s">
+      <c r="M66" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="N66" s="137" t="s">
+      <c r="N66" s="1" t="s">
         <v>875</v>
       </c>
       <c r="O66">
         <v>24.071055555555557</v>
       </c>
-      <c r="P66" s="137" t="s">
+      <c r="P66" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="Q66" s="137" t="s">
+      <c r="Q66" s="1" t="s">
         <v>877</v>
       </c>
       <c r="R66">
         <v>24.082277777777779</v>
       </c>
-      <c r="S66" s="137" t="s">
+      <c r="S66" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="T66" s="137" t="s">
+      <c r="T66" s="1" t="s">
         <v>879</v>
       </c>
       <c r="U66">
         <v>22.736583333333332</v>
       </c>
-      <c r="V66" s="137" t="s">
+      <c r="V66" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="W66" s="137" t="s">
+      <c r="W66" s="1" t="s">
         <v>881</v>
       </c>
       <c r="X66">
         <v>24.085888888888885</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="137" t="s">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="B67" s="137" t="s">
+      <c r="B67" s="1" t="s">
         <v>883</v>
       </c>
       <c r="C67">
         <v>25.165388888888888</v>
       </c>
-      <c r="D67" s="137" t="s">
+      <c r="D67" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="E67" s="137" t="s">
+      <c r="E67" s="1" t="s">
         <v>883</v>
       </c>
       <c r="F67">
         <v>25.164305555555554</v>
       </c>
-      <c r="G67" s="137" t="s">
+      <c r="G67" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="H67" s="137" t="s">
+      <c r="H67" s="1" t="s">
         <v>886</v>
       </c>
       <c r="I67">
         <v>25.158583333333333</v>
       </c>
-      <c r="J67" s="137" t="s">
+      <c r="J67" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="K67" s="137" t="s">
+      <c r="K67" s="1" t="s">
         <v>888</v>
       </c>
       <c r="L67">
         <v>25.157250000000001</v>
       </c>
-      <c r="M67" s="137" t="s">
+      <c r="M67" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="N67" s="137" t="s">
+      <c r="N67" s="1" t="s">
         <v>890</v>
       </c>
       <c r="O67">
         <v>25.161750000000001</v>
       </c>
-      <c r="P67" s="137" t="s">
+      <c r="P67" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="Q67" s="137" t="s">
+      <c r="Q67" s="1" t="s">
         <v>892</v>
       </c>
       <c r="R67">
         <v>25.163722222222223</v>
       </c>
-      <c r="S67" s="137" t="s">
+      <c r="S67" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="T67" s="137" t="s">
+      <c r="T67" s="1" t="s">
         <v>893</v>
       </c>
       <c r="U67">
         <v>25.162083333333332</v>
       </c>
-      <c r="V67" s="137" t="s">
+      <c r="V67" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="W67" s="137" t="s">
+      <c r="W67" s="1" t="s">
         <v>895</v>
       </c>
       <c r="X67">
         <v>25.165388888888888</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="137" t="s">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="B68" s="137" t="s">
+      <c r="B68" s="1" t="s">
         <v>897</v>
       </c>
       <c r="C68">
         <v>24.209777777777777</v>
       </c>
-      <c r="D68" s="137" t="s">
+      <c r="D68" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="E68" s="137" t="s">
+      <c r="E68" s="1" t="s">
         <v>899</v>
       </c>
       <c r="F68">
         <v>24.178666666666668</v>
       </c>
-      <c r="G68" s="137" t="s">
+      <c r="G68" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="H68" s="137" t="s">
+      <c r="H68" s="1" t="s">
         <v>901</v>
       </c>
       <c r="I68">
         <v>20.46425</v>
       </c>
-      <c r="J68" s="137" t="s">
+      <c r="J68" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="K68" s="137" t="s">
+      <c r="K68" s="1" t="s">
         <v>903</v>
       </c>
       <c r="L68">
         <v>24.177611111111108</v>
       </c>
-      <c r="M68" s="137" t="s">
+      <c r="M68" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="N68" s="137" t="s">
+      <c r="N68" s="1" t="s">
         <v>905</v>
       </c>
       <c r="O68">
         <v>24.188750000000002</v>
       </c>
-      <c r="P68" s="137" t="s">
+      <c r="P68" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="Q68" s="137" t="s">
+      <c r="Q68" s="1" t="s">
         <v>897</v>
       </c>
       <c r="R68">
         <v>24.209777777777777</v>
       </c>
-      <c r="S68" s="137" t="s">
+      <c r="S68" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="T68" s="137" t="s">
+      <c r="T68" s="1" t="s">
         <v>907</v>
       </c>
       <c r="U68">
         <v>24.1845</v>
       </c>
-      <c r="V68" s="137" t="s">
+      <c r="V68" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="W68" s="137" t="s">
+      <c r="W68" s="1" t="s">
         <v>909</v>
       </c>
       <c r="X68">
         <v>24.190694444444443</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="137" t="s">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="B69" s="137" t="s">
+      <c r="B69" s="1" t="s">
         <v>911</v>
       </c>
       <c r="C69">
         <v>24.107888888888887</v>
       </c>
-      <c r="D69" s="137" t="s">
+      <c r="D69" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="E69" s="137" t="s">
+      <c r="E69" s="1" t="s">
         <v>913</v>
       </c>
       <c r="F69">
         <v>6.5962222222222229</v>
       </c>
-      <c r="G69" s="137" t="s">
+      <c r="G69" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="H69" s="137" t="s">
+      <c r="H69" s="1" t="s">
         <v>915</v>
       </c>
       <c r="I69">
         <v>24.061305555555556</v>
       </c>
-      <c r="J69" s="137" t="s">
+      <c r="J69" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="K69" s="137" t="s">
+      <c r="K69" s="1" t="s">
         <v>917</v>
       </c>
       <c r="L69">
         <v>24.068916666666667</v>
       </c>
-      <c r="M69" s="137" t="s">
+      <c r="M69" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="N69" s="137" t="s">
+      <c r="N69" s="1" t="s">
         <v>919</v>
       </c>
       <c r="O69">
         <v>24.093000000000004</v>
       </c>
-      <c r="P69" s="137" t="s">
+      <c r="P69" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="Q69" s="137" t="s">
+      <c r="Q69" s="1" t="s">
         <v>921</v>
       </c>
       <c r="R69">
         <v>24.100972222222222</v>
       </c>
-      <c r="S69" s="137" t="s">
+      <c r="S69" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="T69" s="137" t="s">
+      <c r="T69" s="1" t="s">
         <v>911</v>
       </c>
       <c r="U69">
         <v>24.072499999999998</v>
       </c>
-      <c r="V69" s="137" t="s">
+      <c r="V69" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="W69" s="137" t="s">
+      <c r="W69" s="1" t="s">
         <v>923</v>
       </c>
       <c r="X69">
         <v>24.107888888888887</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="137" t="s">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="B70" s="137" t="s">
+      <c r="B70" s="1" t="s">
         <v>925</v>
       </c>
       <c r="C70">
         <v>23.154055555555555</v>
       </c>
-      <c r="D70" s="137" t="s">
+      <c r="D70" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="E70" s="137" t="s">
+      <c r="E70" s="1" t="s">
         <v>925</v>
       </c>
       <c r="F70">
         <v>23.154055555555555</v>
       </c>
-      <c r="G70" s="137" t="s">
+      <c r="G70" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="H70" s="137" t="s">
+      <c r="H70" s="1" t="s">
         <v>927</v>
       </c>
       <c r="I70">
         <v>23.128694444444445</v>
       </c>
-      <c r="J70" s="137" t="s">
+      <c r="J70" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="K70" s="137" t="s">
+      <c r="K70" s="1" t="s">
         <v>929</v>
       </c>
       <c r="L70">
         <v>23.14875</v>
       </c>
-      <c r="M70" s="137" t="s">
+      <c r="M70" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="N70" s="137" t="s">
+      <c r="N70" s="1" t="s">
         <v>931</v>
       </c>
       <c r="O70">
         <v>23.132361111111109</v>
       </c>
-      <c r="P70" s="137" t="s">
+      <c r="P70" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="Q70" s="137" t="s">
+      <c r="Q70" s="1" t="s">
         <v>933</v>
       </c>
       <c r="R70">
         <v>23.114305555555557</v>
       </c>
-      <c r="S70" s="137" t="s">
+      <c r="S70" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="T70" s="137" t="s">
+      <c r="T70" s="1" t="s">
         <v>935</v>
       </c>
       <c r="U70">
         <v>23.125083333333336</v>
       </c>
-      <c r="V70" s="137" t="s">
+      <c r="V70" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="W70" s="137" t="s">
+      <c r="W70" s="1" t="s">
         <v>937</v>
       </c>
       <c r="X70">
@@ -8358,21 +8399,30 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>